--- a/teaching/traditional_assets/database/data/vietnam/vietnam_software_system_application.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_software_system_application.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="hnx_pia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,29 +592,23 @@
           <t>Software (System &amp; Application)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.161</v>
-      </c>
-      <c r="E2">
-        <v>0.278</v>
-      </c>
       <c r="G2">
-        <v>0.1482014388489209</v>
+        <v>0.1625218914185639</v>
       </c>
       <c r="H2">
-        <v>0.1482014388489209</v>
+        <v>0.1625218914185639</v>
       </c>
       <c r="I2">
-        <v>0.1394244604316547</v>
+        <v>0.1374781085814361</v>
       </c>
       <c r="J2">
-        <v>0.1108692584394023</v>
+        <v>0.1083210215718661</v>
       </c>
       <c r="K2">
-        <v>0.825</v>
+        <v>0.666</v>
       </c>
       <c r="L2">
-        <v>0.118705035971223</v>
+        <v>0.1166374781085814</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,16 +632,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="V2">
-        <v>0.3076923076923077</v>
+        <v>0.2900232018561485</v>
+      </c>
+      <c r="W2">
+        <v>0.2834042553191489</v>
       </c>
       <c r="X2">
-        <v>0.128164027454801</v>
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="Y2">
+        <v>0.1870095964094613</v>
+      </c>
+      <c r="Z2">
+        <v>7.613333333333333</v>
+      </c>
+      <c r="AA2">
+        <v>0.8246840442338073</v>
       </c>
       <c r="AB2">
-        <v>0.128164027454801</v>
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="AC2">
+        <v>0.7282893853241196</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -657,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.6</v>
+        <v>-1.25</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -666,22 +677,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.4444444444444445</v>
+        <v>-0.4084967320261438</v>
       </c>
       <c r="AK2">
-        <v>-2.133333333333333</v>
+        <v>-1.146788990825688</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-0.057</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>785</v>
+      </c>
       <c r="AP2">
-        <v>-1.553398058252427</v>
+        <v>-1.484560570071259</v>
+      </c>
+      <c r="AQ2">
+        <v>-13.7719298245614</v>
       </c>
     </row>
     <row r="3">
@@ -700,29 +717,23 @@
           <t>Software (System &amp; Application)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.161</v>
-      </c>
-      <c r="E3">
-        <v>0.278</v>
-      </c>
       <c r="G3">
-        <v>0.1482014388489209</v>
+        <v>0.1625218914185639</v>
       </c>
       <c r="H3">
-        <v>0.1482014388489209</v>
+        <v>0.1625218914185639</v>
       </c>
       <c r="I3">
-        <v>0.1394244604316547</v>
+        <v>0.1374781085814361</v>
       </c>
       <c r="J3">
-        <v>0.1108692584394023</v>
+        <v>0.1083210215718661</v>
       </c>
       <c r="K3">
-        <v>0.825</v>
+        <v>0.666</v>
       </c>
       <c r="L3">
-        <v>0.118705035971223</v>
+        <v>0.1166374781085814</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,16 +757,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="V3">
-        <v>0.3076923076923077</v>
+        <v>0.2900232018561485</v>
+      </c>
+      <c r="W3">
+        <v>0.2834042553191489</v>
       </c>
       <c r="X3">
-        <v>0.128164027454801</v>
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="Y3">
+        <v>0.1870095964094613</v>
+      </c>
+      <c r="Z3">
+        <v>7.613333333333333</v>
+      </c>
+      <c r="AA3">
+        <v>0.8246840442338073</v>
       </c>
       <c r="AB3">
-        <v>0.128164027454801</v>
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="AC3">
+        <v>0.7282893853241196</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -767,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.6</v>
+        <v>-1.25</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -776,22 +802,8746 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.4444444444444445</v>
+        <v>-0.4084967320261438</v>
       </c>
       <c r="AK3">
-        <v>-2.133333333333333</v>
+        <v>-1.146788990825688</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.057</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>785</v>
+      </c>
       <c r="AP3">
-        <v>-1.553398058252427</v>
+        <v>-1.484560570071259</v>
+      </c>
+      <c r="AQ3">
+        <v>-13.7719298245614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Petrolimex Information Technology and Telecommunication Joint Stock Company (HNX:PIA)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HNX:PIA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>4.31</v>
+      </c>
+      <c r="H2">
+        <v>0.443974461919092</v>
+      </c>
+      <c r="I2">
+        <v>3.06</v>
+      </c>
+      <c r="J2">
+        <v>3.28847446191909</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4.0945</v>
+      </c>
+      <c r="M2">
+        <v>0.09639465890968769</v>
+      </c>
+      <c r="N2">
+        <v>0.08453967371684699</v>
+      </c>
+      <c r="O2">
+        <v>0.0408083059922895</v>
+      </c>
+      <c r="P2">
+        <v>0.01424</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.09639465890968769</v>
+      </c>
+      <c r="T2">
+        <v>1.42023347433694</v>
+      </c>
+      <c r="U2">
+        <v>1.06133089545169</v>
+      </c>
+      <c r="V2">
+        <v>17.1935605063173</v>
+      </c>
+      <c r="W2">
+        <v>10.77082026999771</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>4.31</v>
+      </c>
+      <c r="AB2">
+        <v>0.08206173897596897</v>
+      </c>
+      <c r="AC2">
+        <v>0.05101038249036188</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.842</v>
+      </c>
+      <c r="AH2">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="AI2">
+        <v>0.121</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.001</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1.25</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="C2">
+        <v>4.31</v>
+      </c>
+      <c r="D2">
+        <v>3.06</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.25</v>
+      </c>
+      <c r="H2">
+        <v>4.31</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.842</v>
+      </c>
+      <c r="K2">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L2">
+        <v>0.785</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.785</v>
+      </c>
+      <c r="O2">
+        <v>0.157</v>
+      </c>
+      <c r="P2">
+        <v>0.628</v>
+      </c>
+      <c r="Q2">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09639465890968765</v>
+      </c>
+      <c r="T2">
+        <v>1.061330895451686</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09625706959186828</v>
+      </c>
+      <c r="C3">
+        <v>4.269369441003019</v>
+      </c>
+      <c r="D3">
+        <v>3.062469441003019</v>
+      </c>
+      <c r="E3">
+        <v>0.0431</v>
+      </c>
+      <c r="F3">
+        <v>0.0431</v>
+      </c>
+      <c r="G3">
+        <v>1.25</v>
+      </c>
+      <c r="H3">
+        <v>4.31</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.842</v>
+      </c>
+      <c r="K3">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L3">
+        <v>0.785</v>
+      </c>
+      <c r="M3">
+        <v>0.0006982199999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.7843017800000001</v>
+      </c>
+      <c r="O3">
+        <v>0.156860356</v>
+      </c>
+      <c r="P3">
+        <v>0.627441424</v>
+      </c>
+      <c r="Q3">
+        <v>0.684441424</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09709845413320028</v>
+      </c>
+      <c r="T3">
+        <v>1.069907306728063</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>1124.287473862107</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09611948027404889</v>
+      </c>
+      <c r="C4">
+        <v>4.228742870936811</v>
+      </c>
+      <c r="D4">
+        <v>3.064942870936811</v>
+      </c>
+      <c r="E4">
+        <v>0.0862</v>
+      </c>
+      <c r="F4">
+        <v>0.0862</v>
+      </c>
+      <c r="G4">
+        <v>1.25</v>
+      </c>
+      <c r="H4">
+        <v>4.31</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.842</v>
+      </c>
+      <c r="K4">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L4">
+        <v>0.785</v>
+      </c>
+      <c r="M4">
+        <v>0.00139644</v>
+      </c>
+      <c r="N4">
+        <v>0.78360356</v>
+      </c>
+      <c r="O4">
+        <v>0.156720712</v>
+      </c>
+      <c r="P4">
+        <v>0.6268828479999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.6838828479999999</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.09781661252453969</v>
+      </c>
+      <c r="T4">
+        <v>1.078658746805999</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>562.1437369310532</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09598189095622951</v>
+      </c>
+      <c r="C5">
+        <v>4.188120299474272</v>
+      </c>
+      <c r="D5">
+        <v>3.067420299474272</v>
+      </c>
+      <c r="E5">
+        <v>0.1293</v>
+      </c>
+      <c r="F5">
+        <v>0.1293</v>
+      </c>
+      <c r="G5">
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <v>4.31</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.842</v>
+      </c>
+      <c r="K5">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L5">
+        <v>0.785</v>
+      </c>
+      <c r="M5">
+        <v>0.002094659999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.78290534</v>
+      </c>
+      <c r="O5">
+        <v>0.156581068</v>
+      </c>
+      <c r="P5">
+        <v>0.626324272</v>
+      </c>
+      <c r="Q5">
+        <v>0.6833242719999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.09854957830539125</v>
+      </c>
+      <c r="T5">
+        <v>1.087590628947398</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>374.7624912873689</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09584430163841015</v>
+      </c>
+      <c r="C6">
+        <v>4.147501736319597</v>
+      </c>
+      <c r="D6">
+        <v>3.069901736319596</v>
+      </c>
+      <c r="E6">
+        <v>0.1724</v>
+      </c>
+      <c r="F6">
+        <v>0.1724</v>
+      </c>
+      <c r="G6">
+        <v>1.25</v>
+      </c>
+      <c r="H6">
+        <v>4.31</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.842</v>
+      </c>
+      <c r="K6">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L6">
+        <v>0.785</v>
+      </c>
+      <c r="M6">
+        <v>0.00279288</v>
+      </c>
+      <c r="N6">
+        <v>0.78220712</v>
+      </c>
+      <c r="O6">
+        <v>0.156441424</v>
+      </c>
+      <c r="P6">
+        <v>0.625765696</v>
+      </c>
+      <c r="Q6">
+        <v>0.6827656959999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.09929781420667724</v>
+      </c>
+      <c r="T6">
+        <v>1.096708591966742</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>281.0718684655267</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09570671232059076</v>
+      </c>
+      <c r="C7">
+        <v>4.106887191208409</v>
+      </c>
+      <c r="D7">
+        <v>3.072387191208408</v>
+      </c>
+      <c r="E7">
+        <v>0.2155</v>
+      </c>
+      <c r="F7">
+        <v>0.2155</v>
+      </c>
+      <c r="G7">
+        <v>1.25</v>
+      </c>
+      <c r="H7">
+        <v>4.31</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.842</v>
+      </c>
+      <c r="K7">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L7">
+        <v>0.785</v>
+      </c>
+      <c r="M7">
+        <v>0.0034911</v>
+      </c>
+      <c r="N7">
+        <v>0.7815089000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.15630178</v>
+      </c>
+      <c r="P7">
+        <v>0.62520712</v>
+      </c>
+      <c r="Q7">
+        <v>0.6822071199999999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1000618024427271</v>
+      </c>
+      <c r="T7">
+        <v>1.106018512102283</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>224.8574947724213</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0955691230027714</v>
+      </c>
+      <c r="C8">
+        <v>4.066276673907883</v>
+      </c>
+      <c r="D8">
+        <v>3.074876673907882</v>
+      </c>
+      <c r="E8">
+        <v>0.2585999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.2585999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.25</v>
+      </c>
+      <c r="H8">
+        <v>4.31</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.842</v>
+      </c>
+      <c r="K8">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L8">
+        <v>0.785</v>
+      </c>
+      <c r="M8">
+        <v>0.004189319999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.78081068</v>
+      </c>
+      <c r="O8">
+        <v>0.156162136</v>
+      </c>
+      <c r="P8">
+        <v>0.624648544</v>
+      </c>
+      <c r="Q8">
+        <v>0.681648544</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1008420457476292</v>
+      </c>
+      <c r="T8">
+        <v>1.115526515644963</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>187.3812456436845</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.09543153368495202</v>
+      </c>
+      <c r="C9">
+        <v>4.025670194216881</v>
+      </c>
+      <c r="D9">
+        <v>3.077370194216881</v>
+      </c>
+      <c r="E9">
+        <v>0.3017</v>
+      </c>
+      <c r="F9">
+        <v>0.3017</v>
+      </c>
+      <c r="G9">
+        <v>1.25</v>
+      </c>
+      <c r="H9">
+        <v>4.31</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.842</v>
+      </c>
+      <c r="K9">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L9">
+        <v>0.785</v>
+      </c>
+      <c r="M9">
+        <v>0.00488754</v>
+      </c>
+      <c r="N9">
+        <v>0.78011246</v>
+      </c>
+      <c r="O9">
+        <v>0.156022492</v>
+      </c>
+      <c r="P9">
+        <v>0.6240899680000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.681089968</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.101639068478443</v>
+      </c>
+      <c r="T9">
+        <v>1.12523899238211</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>160.6124962660152</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09529394436713265</v>
+      </c>
+      <c r="C10">
+        <v>3.985067761966071</v>
+      </c>
+      <c r="D10">
+        <v>3.07986776196607</v>
+      </c>
+      <c r="E10">
+        <v>0.3448</v>
+      </c>
+      <c r="F10">
+        <v>0.3448</v>
+      </c>
+      <c r="G10">
+        <v>1.25</v>
+      </c>
+      <c r="H10">
+        <v>4.31</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.842</v>
+      </c>
+      <c r="K10">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L10">
+        <v>0.785</v>
+      </c>
+      <c r="M10">
+        <v>0.00558576</v>
+      </c>
+      <c r="N10">
+        <v>0.77941424</v>
+      </c>
+      <c r="O10">
+        <v>0.155882848</v>
+      </c>
+      <c r="P10">
+        <v>0.6235313920000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.680531392</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1024534177903616</v>
+      </c>
+      <c r="T10">
+        <v>1.13516260991789</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>140.5359342327633</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09515635504931327</v>
+      </c>
+      <c r="C11">
+        <v>3.944469387018064</v>
+      </c>
+      <c r="D11">
+        <v>3.082369387018064</v>
+      </c>
+      <c r="E11">
+        <v>0.3879</v>
+      </c>
+      <c r="F11">
+        <v>0.3879</v>
+      </c>
+      <c r="G11">
+        <v>1.25</v>
+      </c>
+      <c r="H11">
+        <v>4.31</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.842</v>
+      </c>
+      <c r="K11">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L11">
+        <v>0.785</v>
+      </c>
+      <c r="M11">
+        <v>0.006283979999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.7787160200000001</v>
+      </c>
+      <c r="O11">
+        <v>0.155743204</v>
+      </c>
+      <c r="P11">
+        <v>0.6229728160000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.679972816</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1032856648893552</v>
+      </c>
+      <c r="T11">
+        <v>1.145304328937973</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>124.920830429123</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09501876573149391</v>
+      </c>
+      <c r="C12">
+        <v>3.903875079267537</v>
+      </c>
+      <c r="D12">
+        <v>3.084875079267537</v>
+      </c>
+      <c r="E12">
+        <v>0.431</v>
+      </c>
+      <c r="F12">
+        <v>0.431</v>
+      </c>
+      <c r="G12">
+        <v>1.25</v>
+      </c>
+      <c r="H12">
+        <v>4.31</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.842</v>
+      </c>
+      <c r="K12">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L12">
+        <v>0.785</v>
+      </c>
+      <c r="M12">
+        <v>0.006982199999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.7780178</v>
+      </c>
+      <c r="O12">
+        <v>0.15560356</v>
+      </c>
+      <c r="P12">
+        <v>0.62241424</v>
+      </c>
+      <c r="Q12">
+        <v>0.6794142399999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1041364063683266</v>
+      </c>
+      <c r="T12">
+        <v>1.155671419491836</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>112.4287473862107</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09488117641367452</v>
+      </c>
+      <c r="C13">
+        <v>3.863284848641372</v>
+      </c>
+      <c r="D13">
+        <v>3.087384848641372</v>
+      </c>
+      <c r="E13">
+        <v>0.4741</v>
+      </c>
+      <c r="F13">
+        <v>0.4741</v>
+      </c>
+      <c r="G13">
+        <v>1.25</v>
+      </c>
+      <c r="H13">
+        <v>4.31</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.842</v>
+      </c>
+      <c r="K13">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L13">
+        <v>0.785</v>
+      </c>
+      <c r="M13">
+        <v>0.007680419999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.77731958</v>
+      </c>
+      <c r="O13">
+        <v>0.155463916</v>
+      </c>
+      <c r="P13">
+        <v>0.621855664</v>
+      </c>
+      <c r="Q13">
+        <v>0.678855664</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1050062656333422</v>
+      </c>
+      <c r="T13">
+        <v>1.166271478372751</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01296</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>102.2079521692824</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09474358709585515</v>
+      </c>
+      <c r="C14">
+        <v>3.822698705098779</v>
+      </c>
+      <c r="D14">
+        <v>3.089898705098779</v>
+      </c>
+      <c r="E14">
+        <v>0.5171999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.5171999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.25</v>
+      </c>
+      <c r="H14">
+        <v>4.31</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.842</v>
+      </c>
+      <c r="K14">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L14">
+        <v>0.785</v>
+      </c>
+      <c r="M14">
+        <v>0.008378639999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.77662136</v>
+      </c>
+      <c r="O14">
+        <v>0.155324272</v>
+      </c>
+      <c r="P14">
+        <v>0.6212970880000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.678297088</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1058958944271081</v>
+      </c>
+      <c r="T14">
+        <v>1.177112447682779</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01296</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>93.69062282184224</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09460599777803576</v>
+      </c>
+      <c r="C15">
+        <v>3.782116658631431</v>
+      </c>
+      <c r="D15">
+        <v>3.092416658631431</v>
+      </c>
+      <c r="E15">
+        <v>0.5603</v>
+      </c>
+      <c r="F15">
+        <v>0.5603</v>
+      </c>
+      <c r="G15">
+        <v>1.25</v>
+      </c>
+      <c r="H15">
+        <v>4.31</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.842</v>
+      </c>
+      <c r="K15">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L15">
+        <v>0.785</v>
+      </c>
+      <c r="M15">
+        <v>0.009076859999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.7759231400000001</v>
+      </c>
+      <c r="O15">
+        <v>0.155184628</v>
+      </c>
+      <c r="P15">
+        <v>0.6207385120000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.677738512</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1068059744575124</v>
+      </c>
+      <c r="T15">
+        <v>1.188202634678094</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01296</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>86.48365183554667</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0944684084602164</v>
+      </c>
+      <c r="C16">
+        <v>3.741538719263597</v>
+      </c>
+      <c r="D16">
+        <v>3.094938719263597</v>
+      </c>
+      <c r="E16">
+        <v>0.6034</v>
+      </c>
+      <c r="F16">
+        <v>0.6034</v>
+      </c>
+      <c r="G16">
+        <v>1.25</v>
+      </c>
+      <c r="H16">
+        <v>4.31</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.842</v>
+      </c>
+      <c r="K16">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L16">
+        <v>0.785</v>
+      </c>
+      <c r="M16">
+        <v>0.00977508</v>
+      </c>
+      <c r="N16">
+        <v>0.77522492</v>
+      </c>
+      <c r="O16">
+        <v>0.155044984</v>
+      </c>
+      <c r="P16">
+        <v>0.620179936</v>
+      </c>
+      <c r="Q16">
+        <v>0.6771799359999999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1077372191397865</v>
+      </c>
+      <c r="T16">
+        <v>1.199550732998882</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01296</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>80.3062481330076</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09433081914239702</v>
+      </c>
+      <c r="C17">
+        <v>3.700964897052275</v>
+      </c>
+      <c r="D17">
+        <v>3.097464897052275</v>
+      </c>
+      <c r="E17">
+        <v>0.6465</v>
+      </c>
+      <c r="F17">
+        <v>0.6465</v>
+      </c>
+      <c r="G17">
+        <v>1.25</v>
+      </c>
+      <c r="H17">
+        <v>4.31</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.842</v>
+      </c>
+      <c r="K17">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L17">
+        <v>0.785</v>
+      </c>
+      <c r="M17">
+        <v>0.0104733</v>
+      </c>
+      <c r="N17">
+        <v>0.7745267</v>
+      </c>
+      <c r="O17">
+        <v>0.15490534</v>
+      </c>
+      <c r="P17">
+        <v>0.61962136</v>
+      </c>
+      <c r="Q17">
+        <v>0.6766213599999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1086903754616435</v>
+      </c>
+      <c r="T17">
+        <v>1.211165845397806</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01296</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>74.95249825747376</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09419322982457763</v>
+      </c>
+      <c r="C18">
+        <v>3.660395202087324</v>
+      </c>
+      <c r="D18">
+        <v>3.099995202087324</v>
+      </c>
+      <c r="E18">
+        <v>0.6896</v>
+      </c>
+      <c r="F18">
+        <v>0.6896</v>
+      </c>
+      <c r="G18">
+        <v>1.25</v>
+      </c>
+      <c r="H18">
+        <v>4.31</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.842</v>
+      </c>
+      <c r="K18">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L18">
+        <v>0.785</v>
+      </c>
+      <c r="M18">
+        <v>0.01117152</v>
+      </c>
+      <c r="N18">
+        <v>0.77382848</v>
+      </c>
+      <c r="O18">
+        <v>0.154765696</v>
+      </c>
+      <c r="P18">
+        <v>0.619062784</v>
+      </c>
+      <c r="Q18">
+        <v>0.676062784</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1096662259816401</v>
+      </c>
+      <c r="T18">
+        <v>1.223057508091943</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01296</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>70.26796711638167</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09405564050675826</v>
+      </c>
+      <c r="C19">
+        <v>3.6198296444916</v>
+      </c>
+      <c r="D19">
+        <v>3.1025296444916</v>
+      </c>
+      <c r="E19">
+        <v>0.7327</v>
+      </c>
+      <c r="F19">
+        <v>0.7327</v>
+      </c>
+      <c r="G19">
+        <v>1.25</v>
+      </c>
+      <c r="H19">
+        <v>4.31</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.842</v>
+      </c>
+      <c r="K19">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L19">
+        <v>0.785</v>
+      </c>
+      <c r="M19">
+        <v>0.01186974</v>
+      </c>
+      <c r="N19">
+        <v>0.7731302600000001</v>
+      </c>
+      <c r="O19">
+        <v>0.154626052</v>
+      </c>
+      <c r="P19">
+        <v>0.6185042080000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.675504208</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1106655909719979</v>
+      </c>
+      <c r="T19">
+        <v>1.235235716875094</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01296</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>66.13455728600627</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09391805118893889</v>
+      </c>
+      <c r="C20">
+        <v>3.57926823442109</v>
+      </c>
+      <c r="D20">
+        <v>3.10506823442109</v>
+      </c>
+      <c r="E20">
+        <v>0.7757999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.7757999999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.25</v>
+      </c>
+      <c r="H20">
+        <v>4.31</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.842</v>
+      </c>
+      <c r="K20">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L20">
+        <v>0.785</v>
+      </c>
+      <c r="M20">
+        <v>0.01256796</v>
+      </c>
+      <c r="N20">
+        <v>0.77243204</v>
+      </c>
+      <c r="O20">
+        <v>0.154486408</v>
+      </c>
+      <c r="P20">
+        <v>0.617945632</v>
+      </c>
+      <c r="Q20">
+        <v>0.6749456319999999</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1116893307182182</v>
+      </c>
+      <c r="T20">
+        <v>1.247710955140762</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>62.46041521456148</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09378046187111953</v>
+      </c>
+      <c r="C21">
+        <v>3.538710982065048</v>
+      </c>
+      <c r="D21">
+        <v>3.107610982065048</v>
+      </c>
+      <c r="E21">
+        <v>0.8189</v>
+      </c>
+      <c r="F21">
+        <v>0.8189</v>
+      </c>
+      <c r="G21">
+        <v>1.25</v>
+      </c>
+      <c r="H21">
+        <v>4.31</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.842</v>
+      </c>
+      <c r="K21">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L21">
+        <v>0.785</v>
+      </c>
+      <c r="M21">
+        <v>0.01326618</v>
+      </c>
+      <c r="N21">
+        <v>0.77173382</v>
+      </c>
+      <c r="O21">
+        <v>0.154346764</v>
+      </c>
+      <c r="P21">
+        <v>0.617387056</v>
+      </c>
+      <c r="Q21">
+        <v>0.6743870559999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1127383479890365</v>
+      </c>
+      <c r="T21">
+        <v>1.260494223980891</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01296</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>59.17302494011087</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09364287255330014</v>
+      </c>
+      <c r="C22">
+        <v>3.498157897646134</v>
+      </c>
+      <c r="D22">
+        <v>3.110157897646134</v>
+      </c>
+      <c r="E22">
+        <v>0.862</v>
+      </c>
+      <c r="F22">
+        <v>0.862</v>
+      </c>
+      <c r="G22">
+        <v>1.25</v>
+      </c>
+      <c r="H22">
+        <v>4.31</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.842</v>
+      </c>
+      <c r="K22">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L22">
+        <v>0.785</v>
+      </c>
+      <c r="M22">
+        <v>0.0139644</v>
+      </c>
+      <c r="N22">
+        <v>0.7710356</v>
+      </c>
+      <c r="O22">
+        <v>0.15420712</v>
+      </c>
+      <c r="P22">
+        <v>0.61682848</v>
+      </c>
+      <c r="Q22">
+        <v>0.67382848</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1138135906916252</v>
+      </c>
+      <c r="T22">
+        <v>1.273597074542023</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01296</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>56.21437369310534</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09350528323548078</v>
+      </c>
+      <c r="C23">
+        <v>3.457608991420543</v>
+      </c>
+      <c r="D23">
+        <v>3.112708991420543</v>
+      </c>
+      <c r="E23">
+        <v>0.9050999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.9050999999999999</v>
+      </c>
+      <c r="G23">
+        <v>1.25</v>
+      </c>
+      <c r="H23">
+        <v>4.31</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.842</v>
+      </c>
+      <c r="K23">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L23">
+        <v>0.785</v>
+      </c>
+      <c r="M23">
+        <v>0.01466262</v>
+      </c>
+      <c r="N23">
+        <v>0.7703373800000001</v>
+      </c>
+      <c r="O23">
+        <v>0.154067476</v>
+      </c>
+      <c r="P23">
+        <v>0.616269904</v>
+      </c>
+      <c r="Q23">
+        <v>0.673269904</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1149160547284567</v>
+      </c>
+      <c r="T23">
+        <v>1.28703164283888</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01296</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>53.53749875533842</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09336769391766141</v>
+      </c>
+      <c r="C24">
+        <v>3.417064273678154</v>
+      </c>
+      <c r="D24">
+        <v>3.115264273678154</v>
+      </c>
+      <c r="E24">
+        <v>0.9481999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.9481999999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.25</v>
+      </c>
+      <c r="H24">
+        <v>4.31</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.842</v>
+      </c>
+      <c r="K24">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L24">
+        <v>0.785</v>
+      </c>
+      <c r="M24">
+        <v>0.01536084</v>
+      </c>
+      <c r="N24">
+        <v>0.76963916</v>
+      </c>
+      <c r="O24">
+        <v>0.153927832</v>
+      </c>
+      <c r="P24">
+        <v>0.6157113279999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.6727113279999999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1160467870739249</v>
+      </c>
+      <c r="T24">
+        <v>1.300810687245912</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01296</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>51.10397608464121</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09323010459984205</v>
+      </c>
+      <c r="C25">
+        <v>3.376523754742657</v>
+      </c>
+      <c r="D25">
+        <v>3.117823754742657</v>
+      </c>
+      <c r="E25">
+        <v>0.9913</v>
+      </c>
+      <c r="F25">
+        <v>0.9913</v>
+      </c>
+      <c r="G25">
+        <v>1.25</v>
+      </c>
+      <c r="H25">
+        <v>4.31</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.842</v>
+      </c>
+      <c r="K25">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L25">
+        <v>0.785</v>
+      </c>
+      <c r="M25">
+        <v>0.01605906</v>
+      </c>
+      <c r="N25">
+        <v>0.76894094</v>
+      </c>
+      <c r="O25">
+        <v>0.153788188</v>
+      </c>
+      <c r="P25">
+        <v>0.615152752</v>
+      </c>
+      <c r="Q25">
+        <v>0.6721527519999999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1172068890907039</v>
+      </c>
+      <c r="T25">
+        <v>1.314947628910271</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.01296</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>48.88206408096115</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09309251528202264</v>
+      </c>
+      <c r="C26">
+        <v>3.335987444971702</v>
+      </c>
+      <c r="D26">
+        <v>3.120387444971701</v>
+      </c>
+      <c r="E26">
+        <v>1.0344</v>
+      </c>
+      <c r="F26">
+        <v>1.0344</v>
+      </c>
+      <c r="G26">
+        <v>1.25</v>
+      </c>
+      <c r="H26">
+        <v>4.31</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.842</v>
+      </c>
+      <c r="K26">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L26">
+        <v>0.785</v>
+      </c>
+      <c r="M26">
+        <v>0.01675728</v>
+      </c>
+      <c r="N26">
+        <v>0.76824272</v>
+      </c>
+      <c r="O26">
+        <v>0.153648544</v>
+      </c>
+      <c r="P26">
+        <v>0.614594176</v>
+      </c>
+      <c r="Q26">
+        <v>0.6715941759999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1183975201079245</v>
+      </c>
+      <c r="T26">
+        <v>1.329456595355269</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.01296</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>46.84531141092112</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09295492596420327</v>
+      </c>
+      <c r="C27">
+        <v>3.295455354757029</v>
+      </c>
+      <c r="D27">
+        <v>3.122955354757029</v>
+      </c>
+      <c r="E27">
+        <v>1.0775</v>
+      </c>
+      <c r="F27">
+        <v>1.0775</v>
+      </c>
+      <c r="G27">
+        <v>1.25</v>
+      </c>
+      <c r="H27">
+        <v>4.31</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.842</v>
+      </c>
+      <c r="K27">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L27">
+        <v>0.785</v>
+      </c>
+      <c r="M27">
+        <v>0.0174555</v>
+      </c>
+      <c r="N27">
+        <v>0.7675445000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.1535089</v>
+      </c>
+      <c r="P27">
+        <v>0.6140356</v>
+      </c>
+      <c r="Q27">
+        <v>0.6710356</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1196199012856043</v>
+      </c>
+      <c r="T27">
+        <v>1.344352467572135</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.01296</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>44.97149895448427</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09281733664638389</v>
+      </c>
+      <c r="C28">
+        <v>3.254927494524618</v>
+      </c>
+      <c r="D28">
+        <v>3.125527494524619</v>
+      </c>
+      <c r="E28">
+        <v>1.1206</v>
+      </c>
+      <c r="F28">
+        <v>1.1206</v>
+      </c>
+      <c r="G28">
+        <v>1.25</v>
+      </c>
+      <c r="H28">
+        <v>4.31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.842</v>
+      </c>
+      <c r="K28">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L28">
+        <v>0.785</v>
+      </c>
+      <c r="M28">
+        <v>0.01815372</v>
+      </c>
+      <c r="N28">
+        <v>0.76684628</v>
+      </c>
+      <c r="O28">
+        <v>0.153369256</v>
+      </c>
+      <c r="P28">
+        <v>0.613477024</v>
+      </c>
+      <c r="Q28">
+        <v>0.670477024</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1208753197924107</v>
+      </c>
+      <c r="T28">
+        <v>1.359650930929998</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.01296</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>43.24182591777333</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09267974732856452</v>
+      </c>
+      <c r="C29">
+        <v>3.214403874734827</v>
+      </c>
+      <c r="D29">
+        <v>3.128103874734827</v>
+      </c>
+      <c r="E29">
+        <v>1.1637</v>
+      </c>
+      <c r="F29">
+        <v>1.1637</v>
+      </c>
+      <c r="G29">
+        <v>1.25</v>
+      </c>
+      <c r="H29">
+        <v>4.31</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.842</v>
+      </c>
+      <c r="K29">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L29">
+        <v>0.785</v>
+      </c>
+      <c r="M29">
+        <v>0.01885194</v>
+      </c>
+      <c r="N29">
+        <v>0.76614806</v>
+      </c>
+      <c r="O29">
+        <v>0.153229612</v>
+      </c>
+      <c r="P29">
+        <v>0.6129184480000001</v>
+      </c>
+      <c r="Q29">
+        <v>0.669918448</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1221651333268007</v>
+      </c>
+      <c r="T29">
+        <v>1.375368530270267</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.01296</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>41.64027680970766</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09254215801074515</v>
+      </c>
+      <c r="C30">
+        <v>3.173884505882525</v>
+      </c>
+      <c r="D30">
+        <v>3.130684505882525</v>
+      </c>
+      <c r="E30">
+        <v>1.2068</v>
+      </c>
+      <c r="F30">
+        <v>1.2068</v>
+      </c>
+      <c r="G30">
+        <v>1.25</v>
+      </c>
+      <c r="H30">
+        <v>4.31</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.842</v>
+      </c>
+      <c r="K30">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L30">
+        <v>0.785</v>
+      </c>
+      <c r="M30">
+        <v>0.01955016</v>
+      </c>
+      <c r="N30">
+        <v>0.76544984</v>
+      </c>
+      <c r="O30">
+        <v>0.153089968</v>
+      </c>
+      <c r="P30">
+        <v>0.6123598720000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.669359872</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1234907750149238</v>
+      </c>
+      <c r="T30">
+        <v>1.39152272959221</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.01296</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>40.15312406650381</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09240456869292575</v>
+      </c>
+      <c r="C31">
+        <v>3.13336939849725</v>
+      </c>
+      <c r="D31">
+        <v>3.13326939849725</v>
+      </c>
+      <c r="E31">
+        <v>1.2499</v>
+      </c>
+      <c r="F31">
+        <v>1.2499</v>
+      </c>
+      <c r="G31">
+        <v>1.25</v>
+      </c>
+      <c r="H31">
+        <v>4.31</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.842</v>
+      </c>
+      <c r="K31">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L31">
+        <v>0.785</v>
+      </c>
+      <c r="M31">
+        <v>0.02024838</v>
+      </c>
+      <c r="N31">
+        <v>0.7647516200000001</v>
+      </c>
+      <c r="O31">
+        <v>0.152950324</v>
+      </c>
+      <c r="P31">
+        <v>0.6118012960000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.668801296</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1248537587224307</v>
+      </c>
+      <c r="T31">
+        <v>1.408131976782377</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.01296</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>38.76853358145196</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09226697937510639</v>
+      </c>
+      <c r="C32">
+        <v>3.09285856314334</v>
+      </c>
+      <c r="D32">
+        <v>3.13585856314334</v>
+      </c>
+      <c r="E32">
+        <v>1.293</v>
+      </c>
+      <c r="F32">
+        <v>1.293</v>
+      </c>
+      <c r="G32">
+        <v>1.25</v>
+      </c>
+      <c r="H32">
+        <v>4.31</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.842</v>
+      </c>
+      <c r="K32">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L32">
+        <v>0.785</v>
+      </c>
+      <c r="M32">
+        <v>0.0209466</v>
+      </c>
+      <c r="N32">
+        <v>0.7640534</v>
+      </c>
+      <c r="O32">
+        <v>0.15281068</v>
+      </c>
+      <c r="P32">
+        <v>0.61124272</v>
+      </c>
+      <c r="Q32">
+        <v>0.66824272</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1262556848215806</v>
+      </c>
+      <c r="T32">
+        <v>1.425215773892264</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.01296</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>37.47624912873688</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.092129390057287</v>
+      </c>
+      <c r="C33">
+        <v>3.052352010420081</v>
+      </c>
+      <c r="D33">
+        <v>3.138452010420081</v>
+      </c>
+      <c r="E33">
+        <v>1.3361</v>
+      </c>
+      <c r="F33">
+        <v>1.3361</v>
+      </c>
+      <c r="G33">
+        <v>1.25</v>
+      </c>
+      <c r="H33">
+        <v>4.31</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.842</v>
+      </c>
+      <c r="K33">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L33">
+        <v>0.785</v>
+      </c>
+      <c r="M33">
+        <v>0.02164482</v>
+      </c>
+      <c r="N33">
+        <v>0.76335518</v>
+      </c>
+      <c r="O33">
+        <v>0.152671036</v>
+      </c>
+      <c r="P33">
+        <v>0.610684144</v>
+      </c>
+      <c r="Q33">
+        <v>0.667684144</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1276982464598362</v>
+      </c>
+      <c r="T33">
+        <v>1.442794753527074</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01296</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>36.26733786651958</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.09199180073946764</v>
+      </c>
+      <c r="C34">
+        <v>3.011849750961852</v>
+      </c>
+      <c r="D34">
+        <v>3.141049750961852</v>
+      </c>
+      <c r="E34">
+        <v>1.3792</v>
+      </c>
+      <c r="F34">
+        <v>1.3792</v>
+      </c>
+      <c r="G34">
+        <v>1.25</v>
+      </c>
+      <c r="H34">
+        <v>4.31</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.842</v>
+      </c>
+      <c r="K34">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L34">
+        <v>0.785</v>
+      </c>
+      <c r="M34">
+        <v>0.02234304</v>
+      </c>
+      <c r="N34">
+        <v>0.7626569600000001</v>
+      </c>
+      <c r="O34">
+        <v>0.152531392</v>
+      </c>
+      <c r="P34">
+        <v>0.6101255680000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.667125568</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1291832363815701</v>
+      </c>
+      <c r="T34">
+        <v>1.460890761974673</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01296</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>35.13398355819083</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.09185421142164826</v>
+      </c>
+      <c r="C35">
+        <v>2.971351795438272</v>
+      </c>
+      <c r="D35">
+        <v>3.143651795438272</v>
+      </c>
+      <c r="E35">
+        <v>1.4223</v>
+      </c>
+      <c r="F35">
+        <v>1.4223</v>
+      </c>
+      <c r="G35">
+        <v>1.25</v>
+      </c>
+      <c r="H35">
+        <v>4.31</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.842</v>
+      </c>
+      <c r="K35">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L35">
+        <v>0.785</v>
+      </c>
+      <c r="M35">
+        <v>0.02304126</v>
+      </c>
+      <c r="N35">
+        <v>0.7619587400000001</v>
+      </c>
+      <c r="O35">
+        <v>0.152391748</v>
+      </c>
+      <c r="P35">
+        <v>0.6095669920000001</v>
+      </c>
+      <c r="Q35">
+        <v>0.666566992</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1307125543606691</v>
+      </c>
+      <c r="T35">
+        <v>1.479526949778917</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01296</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>34.06931738976081</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.09171662210382887</v>
+      </c>
+      <c r="C36">
+        <v>2.930858154554342</v>
+      </c>
+      <c r="D36">
+        <v>3.146258154554343</v>
+      </c>
+      <c r="E36">
+        <v>1.4654</v>
+      </c>
+      <c r="F36">
+        <v>1.4654</v>
+      </c>
+      <c r="G36">
+        <v>1.25</v>
+      </c>
+      <c r="H36">
+        <v>4.31</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.842</v>
+      </c>
+      <c r="K36">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L36">
+        <v>0.785</v>
+      </c>
+      <c r="M36">
+        <v>0.02373948</v>
+      </c>
+      <c r="N36">
+        <v>0.76126052</v>
+      </c>
+      <c r="O36">
+        <v>0.152252104</v>
+      </c>
+      <c r="P36">
+        <v>0.609008416</v>
+      </c>
+      <c r="Q36">
+        <v>0.6660084159999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1322882153088316</v>
+      </c>
+      <c r="T36">
+        <v>1.498727870546926</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.01296</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>33.06727864300314</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.0915790327860095</v>
+      </c>
+      <c r="C37">
+        <v>2.890368839050597</v>
+      </c>
+      <c r="D37">
+        <v>3.148868839050596</v>
+      </c>
+      <c r="E37">
+        <v>1.5085</v>
+      </c>
+      <c r="F37">
+        <v>1.5085</v>
+      </c>
+      <c r="G37">
+        <v>1.25</v>
+      </c>
+      <c r="H37">
+        <v>4.31</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.842</v>
+      </c>
+      <c r="K37">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L37">
+        <v>0.785</v>
+      </c>
+      <c r="M37">
+        <v>0.0244377</v>
+      </c>
+      <c r="N37">
+        <v>0.7605623</v>
+      </c>
+      <c r="O37">
+        <v>0.15211246</v>
+      </c>
+      <c r="P37">
+        <v>0.60844984</v>
+      </c>
+      <c r="Q37">
+        <v>0.66544984</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1339123581323223</v>
+      </c>
+      <c r="T37">
+        <v>1.518519588877027</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.01296</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>32.12249925320305</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.09144144346819015</v>
+      </c>
+      <c r="C38">
+        <v>2.849883859703243</v>
+      </c>
+      <c r="D38">
+        <v>3.151483859703242</v>
+      </c>
+      <c r="E38">
+        <v>1.5516</v>
+      </c>
+      <c r="F38">
+        <v>1.5516</v>
+      </c>
+      <c r="G38">
+        <v>1.25</v>
+      </c>
+      <c r="H38">
+        <v>4.31</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.842</v>
+      </c>
+      <c r="K38">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L38">
+        <v>0.785</v>
+      </c>
+      <c r="M38">
+        <v>0.02513592</v>
+      </c>
+      <c r="N38">
+        <v>0.7598640800000001</v>
+      </c>
+      <c r="O38">
+        <v>0.151972816</v>
+      </c>
+      <c r="P38">
+        <v>0.607891264</v>
+      </c>
+      <c r="Q38">
+        <v>0.664891264</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1355872554190471</v>
+      </c>
+      <c r="T38">
+        <v>1.538929798404944</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.01296</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>31.23020760728074</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.09130385415037076</v>
+      </c>
+      <c r="C39">
+        <v>2.809403227324323</v>
+      </c>
+      <c r="D39">
+        <v>3.154103227324322</v>
+      </c>
+      <c r="E39">
+        <v>1.5947</v>
+      </c>
+      <c r="F39">
+        <v>1.5947</v>
+      </c>
+      <c r="G39">
+        <v>1.25</v>
+      </c>
+      <c r="H39">
+        <v>4.31</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.842</v>
+      </c>
+      <c r="K39">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L39">
+        <v>0.785</v>
+      </c>
+      <c r="M39">
+        <v>0.02583414</v>
+      </c>
+      <c r="N39">
+        <v>0.7591658600000001</v>
+      </c>
+      <c r="O39">
+        <v>0.151833172</v>
+      </c>
+      <c r="P39">
+        <v>0.6073326880000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.664332688</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1373153240482076</v>
+      </c>
+      <c r="T39">
+        <v>1.559987951092478</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.01296</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>30.3861479422191</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.09116626483255139</v>
+      </c>
+      <c r="C40">
+        <v>2.768926952761847</v>
+      </c>
+      <c r="D40">
+        <v>3.156726952761847</v>
+      </c>
+      <c r="E40">
+        <v>1.6378</v>
+      </c>
+      <c r="F40">
+        <v>1.6378</v>
+      </c>
+      <c r="G40">
+        <v>1.25</v>
+      </c>
+      <c r="H40">
+        <v>4.31</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.842</v>
+      </c>
+      <c r="K40">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L40">
+        <v>0.785</v>
+      </c>
+      <c r="M40">
+        <v>0.02653236</v>
+      </c>
+      <c r="N40">
+        <v>0.75846764</v>
+      </c>
+      <c r="O40">
+        <v>0.151693528</v>
+      </c>
+      <c r="P40">
+        <v>0.606774112</v>
+      </c>
+      <c r="Q40">
+        <v>0.6637741119999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1390991368266958</v>
+      </c>
+      <c r="T40">
+        <v>1.581725399027996</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.01296</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>29.58651247005544</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.09102867551473201</v>
+      </c>
+      <c r="C41">
+        <v>2.728455046899956</v>
+      </c>
+      <c r="D41">
+        <v>3.159355046899956</v>
+      </c>
+      <c r="E41">
+        <v>1.6809</v>
+      </c>
+      <c r="F41">
+        <v>1.6809</v>
+      </c>
+      <c r="G41">
+        <v>1.25</v>
+      </c>
+      <c r="H41">
+        <v>4.31</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.842</v>
+      </c>
+      <c r="K41">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L41">
+        <v>0.785</v>
+      </c>
+      <c r="M41">
+        <v>0.02723058</v>
+      </c>
+      <c r="N41">
+        <v>0.75776942</v>
+      </c>
+      <c r="O41">
+        <v>0.151553884</v>
+      </c>
+      <c r="P41">
+        <v>0.606215536</v>
+      </c>
+      <c r="Q41">
+        <v>0.6632155359999999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1409414352700525</v>
+      </c>
+      <c r="T41">
+        <v>1.604175550174515</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.01296</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>28.82788394518222</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.09089108619691265</v>
+      </c>
+      <c r="C42">
+        <v>2.687987520659066</v>
+      </c>
+      <c r="D42">
+        <v>3.161987520659066</v>
+      </c>
+      <c r="E42">
+        <v>1.724</v>
+      </c>
+      <c r="F42">
+        <v>1.724</v>
+      </c>
+      <c r="G42">
+        <v>1.25</v>
+      </c>
+      <c r="H42">
+        <v>4.31</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.842</v>
+      </c>
+      <c r="K42">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L42">
+        <v>0.785</v>
+      </c>
+      <c r="M42">
+        <v>0.0279288</v>
+      </c>
+      <c r="N42">
+        <v>0.7570712000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.15141424</v>
+      </c>
+      <c r="P42">
+        <v>0.60565696</v>
+      </c>
+      <c r="Q42">
+        <v>0.66265696</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1428451436615211</v>
+      </c>
+      <c r="T42">
+        <v>1.627374039692585</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.01296</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>28.10718684655267</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.09075349687909327</v>
+      </c>
+      <c r="C43">
+        <v>2.647524384996018</v>
+      </c>
+      <c r="D43">
+        <v>3.164624384996018</v>
+      </c>
+      <c r="E43">
+        <v>1.7671</v>
+      </c>
+      <c r="F43">
+        <v>1.7671</v>
+      </c>
+      <c r="G43">
+        <v>1.25</v>
+      </c>
+      <c r="H43">
+        <v>4.31</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.842</v>
+      </c>
+      <c r="K43">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L43">
+        <v>0.785</v>
+      </c>
+      <c r="M43">
+        <v>0.02862702</v>
+      </c>
+      <c r="N43">
+        <v>0.7563729800000001</v>
+      </c>
+      <c r="O43">
+        <v>0.151274596</v>
+      </c>
+      <c r="P43">
+        <v>0.605098384</v>
+      </c>
+      <c r="Q43">
+        <v>0.662098384</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1448133845408361</v>
+      </c>
+      <c r="T43">
+        <v>1.651358918685844</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.2</v>
+      </c>
+      <c r="W43">
+        <v>0.01296</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>27.42164570395382</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.09061590756127388</v>
+      </c>
+      <c r="C44">
+        <v>2.607065650904236</v>
+      </c>
+      <c r="D44">
+        <v>3.167265650904235</v>
+      </c>
+      <c r="E44">
+        <v>1.8102</v>
+      </c>
+      <c r="F44">
+        <v>1.8102</v>
+      </c>
+      <c r="G44">
+        <v>1.25</v>
+      </c>
+      <c r="H44">
+        <v>4.31</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.842</v>
+      </c>
+      <c r="K44">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L44">
+        <v>0.785</v>
+      </c>
+      <c r="M44">
+        <v>0.02932524</v>
+      </c>
+      <c r="N44">
+        <v>0.75567476</v>
+      </c>
+      <c r="O44">
+        <v>0.151134952</v>
+      </c>
+      <c r="P44">
+        <v>0.604539808</v>
+      </c>
+      <c r="Q44">
+        <v>0.6615398079999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1468494957952998</v>
+      </c>
+      <c r="T44">
+        <v>1.676170862471972</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.2</v>
+      </c>
+      <c r="W44">
+        <v>0.01296</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>26.76874937766921</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.09047831824345452</v>
+      </c>
+      <c r="C45">
+        <v>2.566611329413869</v>
+      </c>
+      <c r="D45">
+        <v>3.16991132941387</v>
+      </c>
+      <c r="E45">
+        <v>1.8533</v>
+      </c>
+      <c r="F45">
+        <v>1.8533</v>
+      </c>
+      <c r="G45">
+        <v>1.25</v>
+      </c>
+      <c r="H45">
+        <v>4.31</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.842</v>
+      </c>
+      <c r="K45">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L45">
+        <v>0.785</v>
+      </c>
+      <c r="M45">
+        <v>0.03002345999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.75497654</v>
+      </c>
+      <c r="O45">
+        <v>0.150995308</v>
+      </c>
+      <c r="P45">
+        <v>0.603981232</v>
+      </c>
+      <c r="Q45">
+        <v>0.6609812319999999</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1489570495499202</v>
+      </c>
+      <c r="T45">
+        <v>1.701853400776914</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.2</v>
+      </c>
+      <c r="W45">
+        <v>0.01296</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>26.14622032237457</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.09034072892563515</v>
+      </c>
+      <c r="C46">
+        <v>2.526161431591962</v>
+      </c>
+      <c r="D46">
+        <v>3.172561431591963</v>
+      </c>
+      <c r="E46">
+        <v>1.8964</v>
+      </c>
+      <c r="F46">
+        <v>1.8964</v>
+      </c>
+      <c r="G46">
+        <v>1.25</v>
+      </c>
+      <c r="H46">
+        <v>4.31</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.842</v>
+      </c>
+      <c r="K46">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L46">
+        <v>0.785</v>
+      </c>
+      <c r="M46">
+        <v>0.03072168</v>
+      </c>
+      <c r="N46">
+        <v>0.7542783200000001</v>
+      </c>
+      <c r="O46">
+        <v>0.150855664</v>
+      </c>
+      <c r="P46">
+        <v>0.603422656</v>
+      </c>
+      <c r="Q46">
+        <v>0.6604226559999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1511398730814913</v>
+      </c>
+      <c r="T46">
+        <v>1.728453172592745</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.2</v>
+      </c>
+      <c r="W46">
+        <v>0.01296</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>25.55198804232061</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.09020313960781577</v>
+      </c>
+      <c r="C47">
+        <v>2.485715968542594</v>
+      </c>
+      <c r="D47">
+        <v>3.175215968542593</v>
+      </c>
+      <c r="E47">
+        <v>1.9395</v>
+      </c>
+      <c r="F47">
+        <v>1.9395</v>
+      </c>
+      <c r="G47">
+        <v>1.25</v>
+      </c>
+      <c r="H47">
+        <v>4.31</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.842</v>
+      </c>
+      <c r="K47">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L47">
+        <v>0.785</v>
+      </c>
+      <c r="M47">
+        <v>0.03141989999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.7535801000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.15071602</v>
+      </c>
+      <c r="P47">
+        <v>0.60286408</v>
+      </c>
+      <c r="Q47">
+        <v>0.65986408</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1534020720142105</v>
+      </c>
+      <c r="T47">
+        <v>1.756020208838244</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.2</v>
+      </c>
+      <c r="W47">
+        <v>0.01296</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>24.9841660858246</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.0900655502899964</v>
+      </c>
+      <c r="C48">
+        <v>2.445274951407034</v>
+      </c>
+      <c r="D48">
+        <v>3.177874951407035</v>
+      </c>
+      <c r="E48">
+        <v>1.9826</v>
+      </c>
+      <c r="F48">
+        <v>1.9826</v>
+      </c>
+      <c r="G48">
+        <v>1.25</v>
+      </c>
+      <c r="H48">
+        <v>4.31</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.842</v>
+      </c>
+      <c r="K48">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L48">
+        <v>0.785</v>
+      </c>
+      <c r="M48">
+        <v>0.03211812</v>
+      </c>
+      <c r="N48">
+        <v>0.75288188</v>
+      </c>
+      <c r="O48">
+        <v>0.150576376</v>
+      </c>
+      <c r="P48">
+        <v>0.602305504</v>
+      </c>
+      <c r="Q48">
+        <v>0.659305504</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1557480560925859</v>
+      </c>
+      <c r="T48">
+        <v>1.784608246426168</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.2</v>
+      </c>
+      <c r="W48">
+        <v>0.01296</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>24.44103204048058</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.08992796097217702</v>
+      </c>
+      <c r="C49">
+        <v>2.404838391363913</v>
+      </c>
+      <c r="D49">
+        <v>3.180538391363913</v>
+      </c>
+      <c r="E49">
+        <v>2.0257</v>
+      </c>
+      <c r="F49">
+        <v>2.0257</v>
+      </c>
+      <c r="G49">
+        <v>1.25</v>
+      </c>
+      <c r="H49">
+        <v>4.31</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.842</v>
+      </c>
+      <c r="K49">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L49">
+        <v>0.785</v>
+      </c>
+      <c r="M49">
+        <v>0.03281634</v>
+      </c>
+      <c r="N49">
+        <v>0.75218366</v>
+      </c>
+      <c r="O49">
+        <v>0.150436732</v>
+      </c>
+      <c r="P49">
+        <v>0.6017469280000001</v>
+      </c>
+      <c r="Q49">
+        <v>0.658746928</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1581825678720321</v>
+      </c>
+      <c r="T49">
+        <v>1.814275077885335</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.2</v>
+      </c>
+      <c r="W49">
+        <v>0.01296</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>23.92101008217248</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.08979037165435765</v>
+      </c>
+      <c r="C50">
+        <v>2.364406299629362</v>
+      </c>
+      <c r="D50">
+        <v>3.183206299629362</v>
+      </c>
+      <c r="E50">
+        <v>2.0688</v>
+      </c>
+      <c r="F50">
+        <v>2.0688</v>
+      </c>
+      <c r="G50">
+        <v>1.25</v>
+      </c>
+      <c r="H50">
+        <v>4.31</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.842</v>
+      </c>
+      <c r="K50">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L50">
+        <v>0.785</v>
+      </c>
+      <c r="M50">
+        <v>0.03351455999999999</v>
+      </c>
+      <c r="N50">
+        <v>0.7514854400000001</v>
+      </c>
+      <c r="O50">
+        <v>0.150297088</v>
+      </c>
+      <c r="P50">
+        <v>0.6011883520000001</v>
+      </c>
+      <c r="Q50">
+        <v>0.658188352</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1607107147199185</v>
+      </c>
+      <c r="T50">
+        <v>1.8450829413237</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.2</v>
+      </c>
+      <c r="W50">
+        <v>0.01296</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>23.42265570546056</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.08965278233653827</v>
+      </c>
+      <c r="C51">
+        <v>2.323978687457178</v>
+      </c>
+      <c r="D51">
+        <v>3.185878687457178</v>
+      </c>
+      <c r="E51">
+        <v>2.1119</v>
+      </c>
+      <c r="F51">
+        <v>2.1119</v>
+      </c>
+      <c r="G51">
+        <v>1.25</v>
+      </c>
+      <c r="H51">
+        <v>4.31</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.842</v>
+      </c>
+      <c r="K51">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L51">
+        <v>0.785</v>
+      </c>
+      <c r="M51">
+        <v>0.03421278</v>
+      </c>
+      <c r="N51">
+        <v>0.7507872200000001</v>
+      </c>
+      <c r="O51">
+        <v>0.150157444</v>
+      </c>
+      <c r="P51">
+        <v>0.6006297760000001</v>
+      </c>
+      <c r="Q51">
+        <v>0.6576297760000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1633380045814476</v>
+      </c>
+      <c r="T51">
+        <v>1.877098956269452</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.2</v>
+      </c>
+      <c r="W51">
+        <v>0.01296</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>22.94464232371646</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.08951519301871889</v>
+      </c>
+      <c r="C52">
+        <v>2.283555566138983</v>
+      </c>
+      <c r="D52">
+        <v>3.188555566138983</v>
+      </c>
+      <c r="E52">
+        <v>2.155</v>
+      </c>
+      <c r="F52">
+        <v>2.155</v>
+      </c>
+      <c r="G52">
+        <v>1.25</v>
+      </c>
+      <c r="H52">
+        <v>4.31</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.842</v>
+      </c>
+      <c r="K52">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L52">
+        <v>0.785</v>
+      </c>
+      <c r="M52">
+        <v>0.034911</v>
+      </c>
+      <c r="N52">
+        <v>0.750089</v>
+      </c>
+      <c r="O52">
+        <v>0.1500178</v>
+      </c>
+      <c r="P52">
+        <v>0.6000712</v>
+      </c>
+      <c r="Q52">
+        <v>0.6570712</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1660703860374378</v>
+      </c>
+      <c r="T52">
+        <v>1.910395611813035</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.2</v>
+      </c>
+      <c r="W52">
+        <v>0.01296</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>22.48574947724213</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.08937760370089952</v>
+      </c>
+      <c r="C53">
+        <v>2.24313694700438</v>
+      </c>
+      <c r="D53">
+        <v>3.19123694700438</v>
+      </c>
+      <c r="E53">
+        <v>2.1981</v>
+      </c>
+      <c r="F53">
+        <v>2.1981</v>
+      </c>
+      <c r="G53">
+        <v>1.25</v>
+      </c>
+      <c r="H53">
+        <v>4.31</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.842</v>
+      </c>
+      <c r="K53">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L53">
+        <v>0.785</v>
+      </c>
+      <c r="M53">
+        <v>0.03560922</v>
+      </c>
+      <c r="N53">
+        <v>0.74939078</v>
+      </c>
+      <c r="O53">
+        <v>0.149878156</v>
+      </c>
+      <c r="P53">
+        <v>0.599512624</v>
+      </c>
+      <c r="Q53">
+        <v>0.656512624</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1689142932671419</v>
+      </c>
+      <c r="T53">
+        <v>1.945051314521661</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.2</v>
+      </c>
+      <c r="W53">
+        <v>0.01296</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>22.04485242866876</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.08924001438308013</v>
+      </c>
+      <c r="C54">
+        <v>2.202722841421116</v>
+      </c>
+      <c r="D54">
+        <v>3.193922841421116</v>
+      </c>
+      <c r="E54">
+        <v>2.2412</v>
+      </c>
+      <c r="F54">
+        <v>2.2412</v>
+      </c>
+      <c r="G54">
+        <v>1.25</v>
+      </c>
+      <c r="H54">
+        <v>4.31</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.842</v>
+      </c>
+      <c r="K54">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L54">
+        <v>0.785</v>
+      </c>
+      <c r="M54">
+        <v>0.03630744</v>
+      </c>
+      <c r="N54">
+        <v>0.7486925600000001</v>
+      </c>
+      <c r="O54">
+        <v>0.149738512</v>
+      </c>
+      <c r="P54">
+        <v>0.5989540480000001</v>
+      </c>
+      <c r="Q54">
+        <v>0.655954048</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1718766966314169</v>
+      </c>
+      <c r="T54">
+        <v>1.981151004843147</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.2</v>
+      </c>
+      <c r="W54">
+        <v>0.01296</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>21.62091295888667</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.08910242506526077</v>
+      </c>
+      <c r="C55">
+        <v>2.162313260795236</v>
+      </c>
+      <c r="D55">
+        <v>3.196613260795236</v>
+      </c>
+      <c r="E55">
+        <v>2.2843</v>
+      </c>
+      <c r="F55">
+        <v>2.2843</v>
+      </c>
+      <c r="G55">
+        <v>1.25</v>
+      </c>
+      <c r="H55">
+        <v>4.31</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.842</v>
+      </c>
+      <c r="K55">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L55">
+        <v>0.785</v>
+      </c>
+      <c r="M55">
+        <v>0.03700566</v>
+      </c>
+      <c r="N55">
+        <v>0.74799434</v>
+      </c>
+      <c r="O55">
+        <v>0.149598868</v>
+      </c>
+      <c r="P55">
+        <v>0.598395472</v>
+      </c>
+      <c r="Q55">
+        <v>0.6553954719999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1749651597133208</v>
+      </c>
+      <c r="T55">
+        <v>2.01878685219959</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.2</v>
+      </c>
+      <c r="W55">
+        <v>0.01296</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>21.21297120494541</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.08896483574744138</v>
+      </c>
+      <c r="C56">
+        <v>2.121908216571256</v>
+      </c>
+      <c r="D56">
+        <v>3.199308216571255</v>
+      </c>
+      <c r="E56">
+        <v>2.3274</v>
+      </c>
+      <c r="F56">
+        <v>2.3274</v>
+      </c>
+      <c r="G56">
+        <v>1.25</v>
+      </c>
+      <c r="H56">
+        <v>4.31</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.842</v>
+      </c>
+      <c r="K56">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L56">
+        <v>0.785</v>
+      </c>
+      <c r="M56">
+        <v>0.03770388</v>
+      </c>
+      <c r="N56">
+        <v>0.74729612</v>
+      </c>
+      <c r="O56">
+        <v>0.149459224</v>
+      </c>
+      <c r="P56">
+        <v>0.597836896</v>
+      </c>
+      <c r="Q56">
+        <v>0.6548368959999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1781879037987856</v>
+      </c>
+      <c r="T56">
+        <v>2.058059040745443</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.2</v>
+      </c>
+      <c r="W56">
+        <v>0.01296</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>20.82013840485383</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.088827246429622</v>
+      </c>
+      <c r="C57">
+        <v>2.081507720232312</v>
+      </c>
+      <c r="D57">
+        <v>3.202007720232312</v>
+      </c>
+      <c r="E57">
+        <v>2.3705</v>
+      </c>
+      <c r="F57">
+        <v>2.3705</v>
+      </c>
+      <c r="G57">
+        <v>1.25</v>
+      </c>
+      <c r="H57">
+        <v>4.31</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.842</v>
+      </c>
+      <c r="K57">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L57">
+        <v>0.785</v>
+      </c>
+      <c r="M57">
+        <v>0.03840209999999999</v>
+      </c>
+      <c r="N57">
+        <v>0.7465979</v>
+      </c>
+      <c r="O57">
+        <v>0.14931958</v>
+      </c>
+      <c r="P57">
+        <v>0.59727832</v>
+      </c>
+      <c r="Q57">
+        <v>0.65427832</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1815538809547156</v>
+      </c>
+      <c r="T57">
+        <v>2.099076659893334</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.2</v>
+      </c>
+      <c r="W57">
+        <v>0.01296</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>20.44159043385649</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.08868965711180264</v>
+      </c>
+      <c r="C58">
+        <v>2.041111783300333</v>
+      </c>
+      <c r="D58">
+        <v>3.204711783300334</v>
+      </c>
+      <c r="E58">
+        <v>2.4136</v>
+      </c>
+      <c r="F58">
+        <v>2.4136</v>
+      </c>
+      <c r="G58">
+        <v>1.25</v>
+      </c>
+      <c r="H58">
+        <v>4.31</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.842</v>
+      </c>
+      <c r="K58">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L58">
+        <v>0.785</v>
+      </c>
+      <c r="M58">
+        <v>0.03910032</v>
+      </c>
+      <c r="N58">
+        <v>0.7458996800000001</v>
+      </c>
+      <c r="O58">
+        <v>0.149179936</v>
+      </c>
+      <c r="P58">
+        <v>0.5967197440000001</v>
+      </c>
+      <c r="Q58">
+        <v>0.653719744</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1850728570722787</v>
+      </c>
+      <c r="T58">
+        <v>2.141958716275221</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.2</v>
+      </c>
+      <c r="W58">
+        <v>0.01296</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>20.0765620332519</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.08855206779398327</v>
+      </c>
+      <c r="C59">
+        <v>2.000720417336203</v>
+      </c>
+      <c r="D59">
+        <v>3.207420417336203</v>
+      </c>
+      <c r="E59">
+        <v>2.4567</v>
+      </c>
+      <c r="F59">
+        <v>2.4567</v>
+      </c>
+      <c r="G59">
+        <v>1.25</v>
+      </c>
+      <c r="H59">
+        <v>4.31</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.842</v>
+      </c>
+      <c r="K59">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L59">
+        <v>0.785</v>
+      </c>
+      <c r="M59">
+        <v>0.03979854</v>
+      </c>
+      <c r="N59">
+        <v>0.74520146</v>
+      </c>
+      <c r="O59">
+        <v>0.149040292</v>
+      </c>
+      <c r="P59">
+        <v>0.596161168</v>
+      </c>
+      <c r="Q59">
+        <v>0.6531611679999999</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1887555064976355</v>
+      </c>
+      <c r="T59">
+        <v>2.186835286907427</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.2</v>
+      </c>
+      <c r="W59">
+        <v>0.01296</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>19.72434164670362</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.08841447847616389</v>
+      </c>
+      <c r="C60">
+        <v>1.960333633939921</v>
+      </c>
+      <c r="D60">
+        <v>3.210133633939921</v>
+      </c>
+      <c r="E60">
+        <v>2.4998</v>
+      </c>
+      <c r="F60">
+        <v>2.4998</v>
+      </c>
+      <c r="G60">
+        <v>1.25</v>
+      </c>
+      <c r="H60">
+        <v>4.31</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.842</v>
+      </c>
+      <c r="K60">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L60">
+        <v>0.785</v>
+      </c>
+      <c r="M60">
+        <v>0.04049675999999999</v>
+      </c>
+      <c r="N60">
+        <v>0.74450324</v>
+      </c>
+      <c r="O60">
+        <v>0.148900648</v>
+      </c>
+      <c r="P60">
+        <v>0.595602592</v>
+      </c>
+      <c r="Q60">
+        <v>0.6526025919999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1926135201813426</v>
+      </c>
+      <c r="T60">
+        <v>2.233848837093548</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.2</v>
+      </c>
+      <c r="W60">
+        <v>0.01296</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>19.38426679072598</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.08827688915834452</v>
+      </c>
+      <c r="C61">
+        <v>1.919951444750771</v>
+      </c>
+      <c r="D61">
+        <v>3.212851444750771</v>
+      </c>
+      <c r="E61">
+        <v>2.542899999999999</v>
+      </c>
+      <c r="F61">
+        <v>2.542899999999999</v>
+      </c>
+      <c r="G61">
+        <v>1.25</v>
+      </c>
+      <c r="H61">
+        <v>4.31</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.842</v>
+      </c>
+      <c r="K61">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L61">
+        <v>0.785</v>
+      </c>
+      <c r="M61">
+        <v>0.04119497999999999</v>
+      </c>
+      <c r="N61">
+        <v>0.74380502</v>
+      </c>
+      <c r="O61">
+        <v>0.148761004</v>
+      </c>
+      <c r="P61">
+        <v>0.595044016</v>
+      </c>
+      <c r="Q61">
+        <v>0.6520440159999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1966597296544988</v>
+      </c>
+      <c r="T61">
+        <v>2.283155731191187</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.2</v>
+      </c>
+      <c r="W61">
+        <v>0.01296</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>19.05571989596791</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.08813929984052515</v>
+      </c>
+      <c r="C62">
+        <v>1.879573861447486</v>
+      </c>
+      <c r="D62">
+        <v>3.215573861447486</v>
+      </c>
+      <c r="E62">
+        <v>2.586</v>
+      </c>
+      <c r="F62">
+        <v>2.586</v>
+      </c>
+      <c r="G62">
+        <v>1.25</v>
+      </c>
+      <c r="H62">
+        <v>4.31</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.842</v>
+      </c>
+      <c r="K62">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L62">
+        <v>0.785</v>
+      </c>
+      <c r="M62">
+        <v>0.0418932</v>
+      </c>
+      <c r="N62">
+        <v>0.7431068000000001</v>
+      </c>
+      <c r="O62">
+        <v>0.14862136</v>
+      </c>
+      <c r="P62">
+        <v>0.59448544</v>
+      </c>
+      <c r="Q62">
+        <v>0.65148544</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2009082496013128</v>
+      </c>
+      <c r="T62">
+        <v>2.334927969993709</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.2</v>
+      </c>
+      <c r="W62">
+        <v>0.01296</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>18.73812456436844</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.08800171052270576</v>
+      </c>
+      <c r="C63">
+        <v>1.839200895748421</v>
+      </c>
+      <c r="D63">
+        <v>3.21830089574842</v>
+      </c>
+      <c r="E63">
+        <v>2.6291</v>
+      </c>
+      <c r="F63">
+        <v>2.6291</v>
+      </c>
+      <c r="G63">
+        <v>1.25</v>
+      </c>
+      <c r="H63">
+        <v>4.31</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.842</v>
+      </c>
+      <c r="K63">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L63">
+        <v>0.785</v>
+      </c>
+      <c r="M63">
+        <v>0.04259141999999999</v>
+      </c>
+      <c r="N63">
+        <v>0.74240858</v>
+      </c>
+      <c r="O63">
+        <v>0.148481716</v>
+      </c>
+      <c r="P63">
+        <v>0.5939268639999999</v>
+      </c>
+      <c r="Q63">
+        <v>0.6509268639999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2053746423659122</v>
+      </c>
+      <c r="T63">
+        <v>2.389355195401488</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.2</v>
+      </c>
+      <c r="W63">
+        <v>0.01296</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>18.43094219446077</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.0878641212048864</v>
+      </c>
+      <c r="C64">
+        <v>1.798832559411709</v>
+      </c>
+      <c r="D64">
+        <v>3.22103255941171</v>
+      </c>
+      <c r="E64">
+        <v>2.6722</v>
+      </c>
+      <c r="F64">
+        <v>2.6722</v>
+      </c>
+      <c r="G64">
+        <v>1.25</v>
+      </c>
+      <c r="H64">
+        <v>4.31</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.842</v>
+      </c>
+      <c r="K64">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L64">
+        <v>0.785</v>
+      </c>
+      <c r="M64">
+        <v>0.04328963999999999</v>
+      </c>
+      <c r="N64">
+        <v>0.74171036</v>
+      </c>
+      <c r="O64">
+        <v>0.148342072</v>
+      </c>
+      <c r="P64">
+        <v>0.593368288</v>
+      </c>
+      <c r="Q64">
+        <v>0.6503682879999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2100761084339116</v>
+      </c>
+      <c r="T64">
+        <v>2.446647011620202</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.2</v>
+      </c>
+      <c r="W64">
+        <v>0.01296</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>18.13366893325979</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.08772653188706701</v>
+      </c>
+      <c r="C65">
+        <v>1.758468864235448</v>
+      </c>
+      <c r="D65">
+        <v>3.223768864235448</v>
+      </c>
+      <c r="E65">
+        <v>2.7153</v>
+      </c>
+      <c r="F65">
+        <v>2.7153</v>
+      </c>
+      <c r="G65">
+        <v>1.25</v>
+      </c>
+      <c r="H65">
+        <v>4.31</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.842</v>
+      </c>
+      <c r="K65">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L65">
+        <v>0.785</v>
+      </c>
+      <c r="M65">
+        <v>0.04398785999999999</v>
+      </c>
+      <c r="N65">
+        <v>0.74101214</v>
+      </c>
+      <c r="O65">
+        <v>0.148202428</v>
+      </c>
+      <c r="P65">
+        <v>0.592809712</v>
+      </c>
+      <c r="Q65">
+        <v>0.6498097119999999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2150317078028838</v>
+      </c>
+      <c r="T65">
+        <v>2.507035682769658</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.2</v>
+      </c>
+      <c r="W65">
+        <v>0.01296</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>17.84583291844614</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.08758894256924765</v>
+      </c>
+      <c r="C66">
+        <v>1.718109822057851</v>
+      </c>
+      <c r="D66">
+        <v>3.226509822057851</v>
+      </c>
+      <c r="E66">
+        <v>2.7584</v>
+      </c>
+      <c r="F66">
+        <v>2.7584</v>
+      </c>
+      <c r="G66">
+        <v>1.25</v>
+      </c>
+      <c r="H66">
+        <v>4.31</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.842</v>
+      </c>
+      <c r="K66">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L66">
+        <v>0.785</v>
+      </c>
+      <c r="M66">
+        <v>0.04468608</v>
+      </c>
+      <c r="N66">
+        <v>0.7403139200000001</v>
+      </c>
+      <c r="O66">
+        <v>0.148062784</v>
+      </c>
+      <c r="P66">
+        <v>0.592251136</v>
+      </c>
+      <c r="Q66">
+        <v>0.649251136</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2202626182479101</v>
+      </c>
+      <c r="T66">
+        <v>2.570779280094084</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.2</v>
+      </c>
+      <c r="W66">
+        <v>0.01296</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>17.56699177909542</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.08745135325142826</v>
+      </c>
+      <c r="C67">
+        <v>1.677755444757433</v>
+      </c>
+      <c r="D67">
+        <v>3.229255444757433</v>
+      </c>
+      <c r="E67">
+        <v>2.8015</v>
+      </c>
+      <c r="F67">
+        <v>2.8015</v>
+      </c>
+      <c r="G67">
+        <v>1.25</v>
+      </c>
+      <c r="H67">
+        <v>4.31</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.842</v>
+      </c>
+      <c r="K67">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L67">
+        <v>0.785</v>
+      </c>
+      <c r="M67">
+        <v>0.0453843</v>
+      </c>
+      <c r="N67">
+        <v>0.7396157</v>
+      </c>
+      <c r="O67">
+        <v>0.14792314</v>
+      </c>
+      <c r="P67">
+        <v>0.59169256</v>
+      </c>
+      <c r="Q67">
+        <v>0.64869256</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2257924378612236</v>
+      </c>
+      <c r="T67">
+        <v>2.638165368694191</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.2</v>
+      </c>
+      <c r="W67">
+        <v>0.01296</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>17.29673036710933</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.08731376393360887</v>
+      </c>
+      <c r="C68">
+        <v>1.63740574425317</v>
+      </c>
+      <c r="D68">
+        <v>3.23200574425317</v>
+      </c>
+      <c r="E68">
+        <v>2.8446</v>
+      </c>
+      <c r="F68">
+        <v>2.8446</v>
+      </c>
+      <c r="G68">
+        <v>1.25</v>
+      </c>
+      <c r="H68">
+        <v>4.31</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.842</v>
+      </c>
+      <c r="K68">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L68">
+        <v>0.785</v>
+      </c>
+      <c r="M68">
+        <v>0.04608251999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.73891748</v>
+      </c>
+      <c r="O68">
+        <v>0.147783496</v>
+      </c>
+      <c r="P68">
+        <v>0.5911339840000001</v>
+      </c>
+      <c r="Q68">
+        <v>0.648133984</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2316475409812026</v>
+      </c>
+      <c r="T68">
+        <v>2.70951534485901</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.2</v>
+      </c>
+      <c r="W68">
+        <v>0.01296</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>17.0346586948804</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.08717617461578953</v>
+      </c>
+      <c r="C69">
+        <v>1.597060732504683</v>
+      </c>
+      <c r="D69">
+        <v>3.234760732504682</v>
+      </c>
+      <c r="E69">
+        <v>2.8877</v>
+      </c>
+      <c r="F69">
+        <v>2.8877</v>
+      </c>
+      <c r="G69">
+        <v>1.25</v>
+      </c>
+      <c r="H69">
+        <v>4.31</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.842</v>
+      </c>
+      <c r="K69">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L69">
+        <v>0.785</v>
+      </c>
+      <c r="M69">
+        <v>0.04678073999999999</v>
+      </c>
+      <c r="N69">
+        <v>0.73821926</v>
+      </c>
+      <c r="O69">
+        <v>0.147643852</v>
+      </c>
+      <c r="P69">
+        <v>0.5905754080000001</v>
+      </c>
+      <c r="Q69">
+        <v>0.647575408</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2378574988357259</v>
+      </c>
+      <c r="T69">
+        <v>2.785189562003516</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.2</v>
+      </c>
+      <c r="W69">
+        <v>0.01296</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>16.78041005764338</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.08703858529797012</v>
+      </c>
+      <c r="C70">
+        <v>1.5567204215124</v>
+      </c>
+      <c r="D70">
+        <v>3.2375204215124</v>
+      </c>
+      <c r="E70">
+        <v>2.9308</v>
+      </c>
+      <c r="F70">
+        <v>2.9308</v>
+      </c>
+      <c r="G70">
+        <v>1.25</v>
+      </c>
+      <c r="H70">
+        <v>4.31</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.842</v>
+      </c>
+      <c r="K70">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L70">
+        <v>0.785</v>
+      </c>
+      <c r="M70">
+        <v>0.04747896</v>
+      </c>
+      <c r="N70">
+        <v>0.7375210400000001</v>
+      </c>
+      <c r="O70">
+        <v>0.147504208</v>
+      </c>
+      <c r="P70">
+        <v>0.5900168320000001</v>
+      </c>
+      <c r="Q70">
+        <v>0.647016832</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2444555790561567</v>
+      </c>
+      <c r="T70">
+        <v>2.865593417719552</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.2</v>
+      </c>
+      <c r="W70">
+        <v>0.01296</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>16.53363932150157</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.08690099598015076</v>
+      </c>
+      <c r="C71">
+        <v>1.516384823317742</v>
+      </c>
+      <c r="D71">
+        <v>3.240284823317742</v>
+      </c>
+      <c r="E71">
+        <v>2.9739</v>
+      </c>
+      <c r="F71">
+        <v>2.9739</v>
+      </c>
+      <c r="G71">
+        <v>1.25</v>
+      </c>
+      <c r="H71">
+        <v>4.31</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.842</v>
+      </c>
+      <c r="K71">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L71">
+        <v>0.785</v>
+      </c>
+      <c r="M71">
+        <v>0.04817718</v>
+      </c>
+      <c r="N71">
+        <v>0.73682282</v>
+      </c>
+      <c r="O71">
+        <v>0.147364564</v>
+      </c>
+      <c r="P71">
+        <v>0.589458256</v>
+      </c>
+      <c r="Q71">
+        <v>0.646458256</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2514793418714541</v>
+      </c>
+      <c r="T71">
+        <v>2.951184618965656</v>
+      </c>
+      <c r="U71">
+        <v>0.0162</v>
+      </c>
+      <c r="V71">
+        <v>0.2</v>
+      </c>
+      <c r="W71">
+        <v>0.01296</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>16.29402136032039</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.08676340666233137</v>
+      </c>
+      <c r="C72">
+        <v>1.476053950003289</v>
+      </c>
+      <c r="D72">
+        <v>3.243053950003289</v>
+      </c>
+      <c r="E72">
+        <v>3.017</v>
+      </c>
+      <c r="F72">
+        <v>3.017</v>
+      </c>
+      <c r="G72">
+        <v>1.25</v>
+      </c>
+      <c r="H72">
+        <v>4.31</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.842</v>
+      </c>
+      <c r="K72">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L72">
+        <v>0.785</v>
+      </c>
+      <c r="M72">
+        <v>0.04887539999999999</v>
+      </c>
+      <c r="N72">
+        <v>0.7361246</v>
+      </c>
+      <c r="O72">
+        <v>0.14722492</v>
+      </c>
+      <c r="P72">
+        <v>0.58889968</v>
+      </c>
+      <c r="Q72">
+        <v>0.64589968</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2589713555411046</v>
+      </c>
+      <c r="T72">
+        <v>3.042481900294833</v>
+      </c>
+      <c r="U72">
+        <v>0.0162</v>
+      </c>
+      <c r="V72">
+        <v>0.2</v>
+      </c>
+      <c r="W72">
+        <v>0.01296</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>16.06124962660152</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.086625817344512</v>
+      </c>
+      <c r="C73">
+        <v>1.435727813692957</v>
+      </c>
+      <c r="D73">
+        <v>3.245827813692957</v>
+      </c>
+      <c r="E73">
+        <v>3.060099999999999</v>
+      </c>
+      <c r="F73">
+        <v>3.060099999999999</v>
+      </c>
+      <c r="G73">
+        <v>1.25</v>
+      </c>
+      <c r="H73">
+        <v>4.31</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.842</v>
+      </c>
+      <c r="K73">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L73">
+        <v>0.785</v>
+      </c>
+      <c r="M73">
+        <v>0.04957361999999998</v>
+      </c>
+      <c r="N73">
+        <v>0.73542638</v>
+      </c>
+      <c r="O73">
+        <v>0.147085276</v>
+      </c>
+      <c r="P73">
+        <v>0.5883411040000001</v>
+      </c>
+      <c r="Q73">
+        <v>0.645341104</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.266980059808662</v>
+      </c>
+      <c r="T73">
+        <v>3.140075545853608</v>
+      </c>
+      <c r="U73">
+        <v>0.0162</v>
+      </c>
+      <c r="V73">
+        <v>0.2</v>
+      </c>
+      <c r="W73">
+        <v>0.01296</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>15.83503484312827</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.08648822802669262</v>
+      </c>
+      <c r="C74">
+        <v>1.395406426552183</v>
+      </c>
+      <c r="D74">
+        <v>3.248606426552182</v>
+      </c>
+      <c r="E74">
+        <v>3.1032</v>
+      </c>
+      <c r="F74">
+        <v>3.1032</v>
+      </c>
+      <c r="G74">
+        <v>1.25</v>
+      </c>
+      <c r="H74">
+        <v>4.31</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.842</v>
+      </c>
+      <c r="K74">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L74">
+        <v>0.785</v>
+      </c>
+      <c r="M74">
+        <v>0.05027183999999999</v>
+      </c>
+      <c r="N74">
+        <v>0.7347281600000001</v>
+      </c>
+      <c r="O74">
+        <v>0.146945632</v>
+      </c>
+      <c r="P74">
+        <v>0.5877825280000001</v>
+      </c>
+      <c r="Q74">
+        <v>0.644782528</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2755608143810451</v>
+      </c>
+      <c r="T74">
+        <v>3.244640166095154</v>
+      </c>
+      <c r="U74">
+        <v>0.0162</v>
+      </c>
+      <c r="V74">
+        <v>0.2</v>
+      </c>
+      <c r="W74">
+        <v>0.01296</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>15.61510380364037</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.08635063870887326</v>
+      </c>
+      <c r="C75">
+        <v>1.355089800788088</v>
+      </c>
+      <c r="D75">
+        <v>3.251389800788088</v>
+      </c>
+      <c r="E75">
+        <v>3.1463</v>
+      </c>
+      <c r="F75">
+        <v>3.1463</v>
+      </c>
+      <c r="G75">
+        <v>1.25</v>
+      </c>
+      <c r="H75">
+        <v>4.31</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.842</v>
+      </c>
+      <c r="K75">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L75">
+        <v>0.785</v>
+      </c>
+      <c r="M75">
+        <v>0.05097005999999999</v>
+      </c>
+      <c r="N75">
+        <v>0.73402994</v>
+      </c>
+      <c r="O75">
+        <v>0.146805988</v>
+      </c>
+      <c r="P75">
+        <v>0.587223952</v>
+      </c>
+      <c r="Q75">
+        <v>0.6442239519999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2847771804032342</v>
+      </c>
+      <c r="T75">
+        <v>3.356950313761998</v>
+      </c>
+      <c r="U75">
+        <v>0.0162</v>
+      </c>
+      <c r="V75">
+        <v>0.2</v>
+      </c>
+      <c r="W75">
+        <v>0.01296</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>15.40119827208365</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.08621304939105388</v>
+      </c>
+      <c r="C76">
+        <v>1.314777948649673</v>
+      </c>
+      <c r="D76">
+        <v>3.254177948649673</v>
+      </c>
+      <c r="E76">
+        <v>3.1894</v>
+      </c>
+      <c r="F76">
+        <v>3.1894</v>
+      </c>
+      <c r="G76">
+        <v>1.25</v>
+      </c>
+      <c r="H76">
+        <v>4.31</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.842</v>
+      </c>
+      <c r="K76">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L76">
+        <v>0.785</v>
+      </c>
+      <c r="M76">
+        <v>0.05166827999999999</v>
+      </c>
+      <c r="N76">
+        <v>0.73333172</v>
+      </c>
+      <c r="O76">
+        <v>0.146666344</v>
+      </c>
+      <c r="P76">
+        <v>0.586665376</v>
+      </c>
+      <c r="Q76">
+        <v>0.643665376</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2947024976578995</v>
+      </c>
+      <c r="T76">
+        <v>3.477899703557063</v>
+      </c>
+      <c r="U76">
+        <v>0.0162</v>
+      </c>
+      <c r="V76">
+        <v>0.2</v>
+      </c>
+      <c r="W76">
+        <v>0.01296</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>15.19307397110955</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.08607546007323449</v>
+      </c>
+      <c r="C77">
+        <v>1.274470882427988</v>
+      </c>
+      <c r="D77">
+        <v>3.256970882427988</v>
+      </c>
+      <c r="E77">
+        <v>3.2325</v>
+      </c>
+      <c r="F77">
+        <v>3.2325</v>
+      </c>
+      <c r="G77">
+        <v>1.25</v>
+      </c>
+      <c r="H77">
+        <v>4.31</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.842</v>
+      </c>
+      <c r="K77">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L77">
+        <v>0.785</v>
+      </c>
+      <c r="M77">
+        <v>0.0523665</v>
+      </c>
+      <c r="N77">
+        <v>0.7326335</v>
+      </c>
+      <c r="O77">
+        <v>0.1465267</v>
+      </c>
+      <c r="P77">
+        <v>0.5861068</v>
+      </c>
+      <c r="Q77">
+        <v>0.6431068</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.305421840292938</v>
+      </c>
+      <c r="T77">
+        <v>3.608525044535732</v>
+      </c>
+      <c r="U77">
+        <v>0.0162</v>
+      </c>
+      <c r="V77">
+        <v>0.2</v>
+      </c>
+      <c r="W77">
+        <v>0.01296</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>14.99049965149475</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.08593787075541512</v>
+      </c>
+      <c r="C78">
+        <v>1.234168614456313</v>
+      </c>
+      <c r="D78">
+        <v>3.259768614456313</v>
+      </c>
+      <c r="E78">
+        <v>3.2756</v>
+      </c>
+      <c r="F78">
+        <v>3.2756</v>
+      </c>
+      <c r="G78">
+        <v>1.25</v>
+      </c>
+      <c r="H78">
+        <v>4.31</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.842</v>
+      </c>
+      <c r="K78">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L78">
+        <v>0.785</v>
+      </c>
+      <c r="M78">
+        <v>0.05306472</v>
+      </c>
+      <c r="N78">
+        <v>0.7319352800000001</v>
+      </c>
+      <c r="O78">
+        <v>0.146387056</v>
+      </c>
+      <c r="P78">
+        <v>0.5855482240000001</v>
+      </c>
+      <c r="Q78">
+        <v>0.642548224</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3170344614808964</v>
+      </c>
+      <c r="T78">
+        <v>3.750035830595957</v>
+      </c>
+      <c r="U78">
+        <v>0.0162</v>
+      </c>
+      <c r="V78">
+        <v>0.2</v>
+      </c>
+      <c r="W78">
+        <v>0.01296</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>14.79325623502772</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.08580028143759574</v>
+      </c>
+      <c r="C79">
+        <v>1.193871157110343</v>
+      </c>
+      <c r="D79">
+        <v>3.262571157110343</v>
+      </c>
+      <c r="E79">
+        <v>3.3187</v>
+      </c>
+      <c r="F79">
+        <v>3.3187</v>
+      </c>
+      <c r="G79">
+        <v>1.25</v>
+      </c>
+      <c r="H79">
+        <v>4.31</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.842</v>
+      </c>
+      <c r="K79">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L79">
+        <v>0.785</v>
+      </c>
+      <c r="M79">
+        <v>0.05376294</v>
+      </c>
+      <c r="N79">
+        <v>0.73123706</v>
+      </c>
+      <c r="O79">
+        <v>0.146247412</v>
+      </c>
+      <c r="P79">
+        <v>0.584989648</v>
+      </c>
+      <c r="Q79">
+        <v>0.6419896479999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3296568758156337</v>
+      </c>
+      <c r="T79">
+        <v>3.903851902400549</v>
+      </c>
+      <c r="U79">
+        <v>0.0162</v>
+      </c>
+      <c r="V79">
+        <v>0.2</v>
+      </c>
+      <c r="W79">
+        <v>0.01296</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>14.6011360241832</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.08566269211977637</v>
+      </c>
+      <c r="C80">
+        <v>1.153578522808368</v>
+      </c>
+      <c r="D80">
+        <v>3.265378522808367</v>
+      </c>
+      <c r="E80">
+        <v>3.3618</v>
+      </c>
+      <c r="F80">
+        <v>3.3618</v>
+      </c>
+      <c r="G80">
+        <v>1.25</v>
+      </c>
+      <c r="H80">
+        <v>4.31</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.842</v>
+      </c>
+      <c r="K80">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L80">
+        <v>0.785</v>
+      </c>
+      <c r="M80">
+        <v>0.05446115999999999</v>
+      </c>
+      <c r="N80">
+        <v>0.73053884</v>
+      </c>
+      <c r="O80">
+        <v>0.146107768</v>
+      </c>
+      <c r="P80">
+        <v>0.584431072</v>
+      </c>
+      <c r="Q80">
+        <v>0.6414310719999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3434267823626199</v>
+      </c>
+      <c r="T80">
+        <v>4.071651253460105</v>
+      </c>
+      <c r="U80">
+        <v>0.0162</v>
+      </c>
+      <c r="V80">
+        <v>0.2</v>
+      </c>
+      <c r="W80">
+        <v>0.01296</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>14.41394197259111</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.08552510280195699</v>
+      </c>
+      <c r="C81">
+        <v>1.113290724011457</v>
+      </c>
+      <c r="D81">
+        <v>3.268190724011457</v>
+      </c>
+      <c r="E81">
+        <v>3.4049</v>
+      </c>
+      <c r="F81">
+        <v>3.4049</v>
+      </c>
+      <c r="G81">
+        <v>1.25</v>
+      </c>
+      <c r="H81">
+        <v>4.31</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.842</v>
+      </c>
+      <c r="K81">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L81">
+        <v>0.785</v>
+      </c>
+      <c r="M81">
+        <v>0.05515938</v>
+      </c>
+      <c r="N81">
+        <v>0.7298406200000001</v>
+      </c>
+      <c r="O81">
+        <v>0.145968124</v>
+      </c>
+      <c r="P81">
+        <v>0.583872496</v>
+      </c>
+      <c r="Q81">
+        <v>0.640872496</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3585081085807477</v>
+      </c>
+      <c r="T81">
+        <v>4.25543149509676</v>
+      </c>
+      <c r="U81">
+        <v>0.0162</v>
+      </c>
+      <c r="V81">
+        <v>0.2</v>
+      </c>
+      <c r="W81">
+        <v>0.01296</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>14.23148701091274</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.08538751348413763</v>
+      </c>
+      <c r="C82">
+        <v>1.073007773223646</v>
+      </c>
+      <c r="D82">
+        <v>3.271007773223646</v>
+      </c>
+      <c r="E82">
+        <v>3.448</v>
+      </c>
+      <c r="F82">
+        <v>3.448</v>
+      </c>
+      <c r="G82">
+        <v>1.25</v>
+      </c>
+      <c r="H82">
+        <v>4.31</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.842</v>
+      </c>
+      <c r="K82">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L82">
+        <v>0.785</v>
+      </c>
+      <c r="M82">
+        <v>0.05585759999999999</v>
+      </c>
+      <c r="N82">
+        <v>0.7291424000000001</v>
+      </c>
+      <c r="O82">
+        <v>0.14582848</v>
+      </c>
+      <c r="P82">
+        <v>0.58331392</v>
+      </c>
+      <c r="Q82">
+        <v>0.64031392</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3750975674206882</v>
+      </c>
+      <c r="T82">
+        <v>4.457589760897082</v>
+      </c>
+      <c r="U82">
+        <v>0.0162</v>
+      </c>
+      <c r="V82">
+        <v>0.2</v>
+      </c>
+      <c r="W82">
+        <v>0.01296</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>14.05359342327633</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.08524992416631826</v>
+      </c>
+      <c r="C83">
+        <v>1.032729682992117</v>
+      </c>
+      <c r="D83">
+        <v>3.273829682992117</v>
+      </c>
+      <c r="E83">
+        <v>3.4911</v>
+      </c>
+      <c r="F83">
+        <v>3.4911</v>
+      </c>
+      <c r="G83">
+        <v>1.25</v>
+      </c>
+      <c r="H83">
+        <v>4.31</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.842</v>
+      </c>
+      <c r="K83">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L83">
+        <v>0.785</v>
+      </c>
+      <c r="M83">
+        <v>0.05655581999999999</v>
+      </c>
+      <c r="N83">
+        <v>0.72844418</v>
+      </c>
+      <c r="O83">
+        <v>0.145688836</v>
+      </c>
+      <c r="P83">
+        <v>0.582755344</v>
+      </c>
+      <c r="Q83">
+        <v>0.6397553439999999</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3934332850858857</v>
+      </c>
+      <c r="T83">
+        <v>4.681027844150068</v>
+      </c>
+      <c r="U83">
+        <v>0.0162</v>
+      </c>
+      <c r="V83">
+        <v>0.2</v>
+      </c>
+      <c r="W83">
+        <v>0.01296</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>13.88009226990255</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.08616193484849886</v>
+      </c>
+      <c r="C84">
+        <v>0.971014966416925</v>
+      </c>
+      <c r="D84">
+        <v>3.255214966416925</v>
+      </c>
+      <c r="E84">
+        <v>3.5342</v>
+      </c>
+      <c r="F84">
+        <v>3.5342</v>
+      </c>
+      <c r="G84">
+        <v>1.25</v>
+      </c>
+      <c r="H84">
+        <v>4.31</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.842</v>
+      </c>
+      <c r="K84">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L84">
+        <v>0.785</v>
+      </c>
+      <c r="M84">
+        <v>0.06290875999999999</v>
+      </c>
+      <c r="N84">
+        <v>0.72209124</v>
+      </c>
+      <c r="O84">
+        <v>0.144418248</v>
+      </c>
+      <c r="P84">
+        <v>0.577672992</v>
+      </c>
+      <c r="Q84">
+        <v>0.6346729919999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4138063047138827</v>
+      </c>
+      <c r="T84">
+        <v>4.929292381097831</v>
+      </c>
+      <c r="U84">
+        <v>0.0178</v>
+      </c>
+      <c r="V84">
+        <v>0.2</v>
+      </c>
+      <c r="W84">
+        <v>0.01424</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>12.47838933719247</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.08603714553067951</v>
+      </c>
+      <c r="C85">
+        <v>0.9304494852131562</v>
+      </c>
+      <c r="D85">
+        <v>3.257749485213156</v>
+      </c>
+      <c r="E85">
+        <v>3.5773</v>
+      </c>
+      <c r="F85">
+        <v>3.5773</v>
+      </c>
+      <c r="G85">
+        <v>1.25</v>
+      </c>
+      <c r="H85">
+        <v>4.31</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.842</v>
+      </c>
+      <c r="K85">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L85">
+        <v>0.785</v>
+      </c>
+      <c r="M85">
+        <v>0.06367594</v>
+      </c>
+      <c r="N85">
+        <v>0.72132406</v>
+      </c>
+      <c r="O85">
+        <v>0.144264812</v>
+      </c>
+      <c r="P85">
+        <v>0.5770592480000001</v>
+      </c>
+      <c r="Q85">
+        <v>0.634059248</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4365761501804679</v>
+      </c>
+      <c r="T85">
+        <v>5.206764510627685</v>
+      </c>
+      <c r="U85">
+        <v>0.0178</v>
+      </c>
+      <c r="V85">
+        <v>0.2</v>
+      </c>
+      <c r="W85">
+        <v>0.01424</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>12.32804729698533</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.08591235621286013</v>
+      </c>
+      <c r="C86">
+        <v>0.8898879538505331</v>
+      </c>
+      <c r="D86">
+        <v>3.260287953850533</v>
+      </c>
+      <c r="E86">
+        <v>3.6204</v>
+      </c>
+      <c r="F86">
+        <v>3.6204</v>
+      </c>
+      <c r="G86">
+        <v>1.25</v>
+      </c>
+      <c r="H86">
+        <v>4.31</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.842</v>
+      </c>
+      <c r="K86">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L86">
+        <v>0.785</v>
+      </c>
+      <c r="M86">
+        <v>0.06444311999999999</v>
+      </c>
+      <c r="N86">
+        <v>0.7205568800000001</v>
+      </c>
+      <c r="O86">
+        <v>0.144111376</v>
+      </c>
+      <c r="P86">
+        <v>0.5764455040000001</v>
+      </c>
+      <c r="Q86">
+        <v>0.633445504</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4621922263303757</v>
+      </c>
+      <c r="T86">
+        <v>5.518920656348765</v>
+      </c>
+      <c r="U86">
+        <v>0.0178</v>
+      </c>
+      <c r="V86">
+        <v>0.2</v>
+      </c>
+      <c r="W86">
+        <v>0.01424</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>12.18128482916408</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.08578756689504076</v>
+      </c>
+      <c r="C87">
+        <v>0.8493303815695099</v>
+      </c>
+      <c r="D87">
+        <v>3.262830381569509</v>
+      </c>
+      <c r="E87">
+        <v>3.6635</v>
+      </c>
+      <c r="F87">
+        <v>3.6635</v>
+      </c>
+      <c r="G87">
+        <v>1.25</v>
+      </c>
+      <c r="H87">
+        <v>4.31</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.842</v>
+      </c>
+      <c r="K87">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L87">
+        <v>0.785</v>
+      </c>
+      <c r="M87">
+        <v>0.06521029999999998</v>
+      </c>
+      <c r="N87">
+        <v>0.7197897000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.14395794</v>
+      </c>
+      <c r="P87">
+        <v>0.57583176</v>
+      </c>
+      <c r="Q87">
+        <v>0.63283176</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4912237793002716</v>
+      </c>
+      <c r="T87">
+        <v>5.872697621499328</v>
+      </c>
+      <c r="U87">
+        <v>0.0178</v>
+      </c>
+      <c r="V87">
+        <v>0.2</v>
+      </c>
+      <c r="W87">
+        <v>0.01424</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>12.0379755958798</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.08566277757722138</v>
+      </c>
+      <c r="C88">
+        <v>0.8087767776393942</v>
+      </c>
+      <c r="D88">
+        <v>3.265376777639394</v>
+      </c>
+      <c r="E88">
+        <v>3.706599999999999</v>
+      </c>
+      <c r="F88">
+        <v>3.706599999999999</v>
+      </c>
+      <c r="G88">
+        <v>1.25</v>
+      </c>
+      <c r="H88">
+        <v>4.31</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.842</v>
+      </c>
+      <c r="K88">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L88">
+        <v>0.785</v>
+      </c>
+      <c r="M88">
+        <v>0.06597747999999999</v>
+      </c>
+      <c r="N88">
+        <v>0.71902252</v>
+      </c>
+      <c r="O88">
+        <v>0.143804504</v>
+      </c>
+      <c r="P88">
+        <v>0.575218016</v>
+      </c>
+      <c r="Q88">
+        <v>0.6322180159999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5244026969801526</v>
+      </c>
+      <c r="T88">
+        <v>6.27701415309997</v>
+      </c>
+      <c r="U88">
+        <v>0.0178</v>
+      </c>
+      <c r="V88">
+        <v>0.2</v>
+      </c>
+      <c r="W88">
+        <v>0.01424</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>11.89799913546259</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.085537988259402</v>
+      </c>
+      <c r="C89">
+        <v>0.768227151358448</v>
+      </c>
+      <c r="D89">
+        <v>3.267927151358448</v>
+      </c>
+      <c r="E89">
+        <v>3.7497</v>
+      </c>
+      <c r="F89">
+        <v>3.7497</v>
+      </c>
+      <c r="G89">
+        <v>1.25</v>
+      </c>
+      <c r="H89">
+        <v>4.31</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.842</v>
+      </c>
+      <c r="K89">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L89">
+        <v>0.785</v>
+      </c>
+      <c r="M89">
+        <v>0.06674466</v>
+      </c>
+      <c r="N89">
+        <v>0.71825534</v>
+      </c>
+      <c r="O89">
+        <v>0.143651068</v>
+      </c>
+      <c r="P89">
+        <v>0.574604272</v>
+      </c>
+      <c r="Q89">
+        <v>0.6316042719999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5626860635338614</v>
+      </c>
+      <c r="T89">
+        <v>6.743533228023788</v>
+      </c>
+      <c r="U89">
+        <v>0.0178</v>
+      </c>
+      <c r="V89">
+        <v>0.2</v>
+      </c>
+      <c r="W89">
+        <v>0.01424</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>11.76124052471014</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.08541319894158263</v>
+      </c>
+      <c r="C90">
+        <v>0.7276815120540068</v>
+      </c>
+      <c r="D90">
+        <v>3.270481512054007</v>
+      </c>
+      <c r="E90">
+        <v>3.7928</v>
+      </c>
+      <c r="F90">
+        <v>3.7928</v>
+      </c>
+      <c r="G90">
+        <v>1.25</v>
+      </c>
+      <c r="H90">
+        <v>4.31</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.842</v>
+      </c>
+      <c r="K90">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L90">
+        <v>0.785</v>
+      </c>
+      <c r="M90">
+        <v>0.06751183999999999</v>
+      </c>
+      <c r="N90">
+        <v>0.71748816</v>
+      </c>
+      <c r="O90">
+        <v>0.143497632</v>
+      </c>
+      <c r="P90">
+        <v>0.5739905280000001</v>
+      </c>
+      <c r="Q90">
+        <v>0.630990528</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6073499911798552</v>
+      </c>
+      <c r="T90">
+        <v>7.287805482101576</v>
+      </c>
+      <c r="U90">
+        <v>0.0178</v>
+      </c>
+      <c r="V90">
+        <v>0.2</v>
+      </c>
+      <c r="W90">
+        <v>0.01424</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>11.62759006420207</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.08528840962376324</v>
+      </c>
+      <c r="C91">
+        <v>0.6871398690825936</v>
+      </c>
+      <c r="D91">
+        <v>3.273039869082593</v>
+      </c>
+      <c r="E91">
+        <v>3.8359</v>
+      </c>
+      <c r="F91">
+        <v>3.8359</v>
+      </c>
+      <c r="G91">
+        <v>1.25</v>
+      </c>
+      <c r="H91">
+        <v>4.31</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.842</v>
+      </c>
+      <c r="K91">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L91">
+        <v>0.785</v>
+      </c>
+      <c r="M91">
+        <v>0.06827902</v>
+      </c>
+      <c r="N91">
+        <v>0.7167209800000001</v>
+      </c>
+      <c r="O91">
+        <v>0.143344196</v>
+      </c>
+      <c r="P91">
+        <v>0.573376784</v>
+      </c>
+      <c r="Q91">
+        <v>0.630376784</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.6601346329433023</v>
+      </c>
+      <c r="T91">
+        <v>7.931036327829871</v>
+      </c>
+      <c r="U91">
+        <v>0.0178</v>
+      </c>
+      <c r="V91">
+        <v>0.2</v>
+      </c>
+      <c r="W91">
+        <v>0.01424</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>11.49694298482902</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.08516362030594388</v>
+      </c>
+      <c r="C92">
+        <v>0.6466022318300251</v>
+      </c>
+      <c r="D92">
+        <v>3.275602231830025</v>
+      </c>
+      <c r="E92">
+        <v>3.879</v>
+      </c>
+      <c r="F92">
+        <v>3.879</v>
+      </c>
+      <c r="G92">
+        <v>1.25</v>
+      </c>
+      <c r="H92">
+        <v>4.31</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.842</v>
+      </c>
+      <c r="K92">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L92">
+        <v>0.785</v>
+      </c>
+      <c r="M92">
+        <v>0.06904619999999999</v>
+      </c>
+      <c r="N92">
+        <v>0.7159538000000001</v>
+      </c>
+      <c r="O92">
+        <v>0.14319076</v>
+      </c>
+      <c r="P92">
+        <v>0.5727630400000001</v>
+      </c>
+      <c r="Q92">
+        <v>0.6297630400000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7234762030594389</v>
+      </c>
+      <c r="T92">
+        <v>8.702913342703827</v>
+      </c>
+      <c r="U92">
+        <v>0.0178</v>
+      </c>
+      <c r="V92">
+        <v>0.2</v>
+      </c>
+      <c r="W92">
+        <v>0.01424</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>11.36919917388647</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.08503883098812448</v>
+      </c>
+      <c r="C93">
+        <v>0.6060686097115391</v>
+      </c>
+      <c r="D93">
+        <v>3.278168609711539</v>
+      </c>
+      <c r="E93">
+        <v>3.9221</v>
+      </c>
+      <c r="F93">
+        <v>3.9221</v>
+      </c>
+      <c r="G93">
+        <v>1.25</v>
+      </c>
+      <c r="H93">
+        <v>4.31</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.842</v>
+      </c>
+      <c r="K93">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L93">
+        <v>0.785</v>
+      </c>
+      <c r="M93">
+        <v>0.06981337999999999</v>
+      </c>
+      <c r="N93">
+        <v>0.71518662</v>
+      </c>
+      <c r="O93">
+        <v>0.143037324</v>
+      </c>
+      <c r="P93">
+        <v>0.572149296</v>
+      </c>
+      <c r="Q93">
+        <v>0.6291492959999999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.800893677645828</v>
+      </c>
+      <c r="T93">
+        <v>9.646318583105325</v>
+      </c>
+      <c r="U93">
+        <v>0.0178</v>
+      </c>
+      <c r="V93">
+        <v>0.2</v>
+      </c>
+      <c r="W93">
+        <v>0.01424</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>11.24426291922838</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.08491404167030513</v>
+      </c>
+      <c r="C94">
+        <v>0.5655390121718997</v>
+      </c>
+      <c r="D94">
+        <v>3.2807390121719</v>
+      </c>
+      <c r="E94">
+        <v>3.9652</v>
+      </c>
+      <c r="F94">
+        <v>3.9652</v>
+      </c>
+      <c r="G94">
+        <v>1.25</v>
+      </c>
+      <c r="H94">
+        <v>4.31</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.842</v>
+      </c>
+      <c r="K94">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L94">
+        <v>0.785</v>
+      </c>
+      <c r="M94">
+        <v>0.07058056</v>
+      </c>
+      <c r="N94">
+        <v>0.71441944</v>
+      </c>
+      <c r="O94">
+        <v>0.142883888</v>
+      </c>
+      <c r="P94">
+        <v>0.5715355520000001</v>
+      </c>
+      <c r="Q94">
+        <v>0.628535552</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.8976655208788146</v>
+      </c>
+      <c r="T94">
+        <v>10.8255751336072</v>
+      </c>
+      <c r="U94">
+        <v>0.0178</v>
+      </c>
+      <c r="V94">
+        <v>0.2</v>
+      </c>
+      <c r="W94">
+        <v>0.01424</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>11.12204267010633</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.08478925235248576</v>
+      </c>
+      <c r="C95">
+        <v>0.5250134486855167</v>
+      </c>
+      <c r="D95">
+        <v>3.283313448685516</v>
+      </c>
+      <c r="E95">
+        <v>4.0083</v>
+      </c>
+      <c r="F95">
+        <v>4.0083</v>
+      </c>
+      <c r="G95">
+        <v>1.25</v>
+      </c>
+      <c r="H95">
+        <v>4.31</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.842</v>
+      </c>
+      <c r="K95">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L95">
+        <v>0.785</v>
+      </c>
+      <c r="M95">
+        <v>0.07134774000000001</v>
+      </c>
+      <c r="N95">
+        <v>0.71365226</v>
+      </c>
+      <c r="O95">
+        <v>0.142730452</v>
+      </c>
+      <c r="P95">
+        <v>0.570921808</v>
+      </c>
+      <c r="Q95">
+        <v>0.627921808</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.022086462178369</v>
+      </c>
+      <c r="T95">
+        <v>12.34176212710961</v>
+      </c>
+      <c r="U95">
+        <v>0.0178</v>
+      </c>
+      <c r="V95">
+        <v>0.2</v>
+      </c>
+      <c r="W95">
+        <v>0.01424</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>11.00245081343852</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.08466446303466638</v>
+      </c>
+      <c r="C96">
+        <v>0.4844919287565643</v>
+      </c>
+      <c r="D96">
+        <v>3.285891928756564</v>
+      </c>
+      <c r="E96">
+        <v>4.0514</v>
+      </c>
+      <c r="F96">
+        <v>4.0514</v>
+      </c>
+      <c r="G96">
+        <v>1.25</v>
+      </c>
+      <c r="H96">
+        <v>4.31</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.842</v>
+      </c>
+      <c r="K96">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L96">
+        <v>0.785</v>
+      </c>
+      <c r="M96">
+        <v>0.07211492</v>
+      </c>
+      <c r="N96">
+        <v>0.7128850800000001</v>
+      </c>
+      <c r="O96">
+        <v>0.142577016</v>
+      </c>
+      <c r="P96">
+        <v>0.570308064</v>
+      </c>
+      <c r="Q96">
+        <v>0.6273080639999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.187981050577774</v>
+      </c>
+      <c r="T96">
+        <v>14.36334478511283</v>
+      </c>
+      <c r="U96">
+        <v>0.0178</v>
+      </c>
+      <c r="V96">
+        <v>0.2</v>
+      </c>
+      <c r="W96">
+        <v>0.01424</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>10.88540346435939</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.08453967371684702</v>
+      </c>
+      <c r="C97">
+        <v>0.4439744619190922</v>
+      </c>
+      <c r="D97">
+        <v>3.288474461919092</v>
+      </c>
+      <c r="E97">
+        <v>4.0945</v>
+      </c>
+      <c r="F97">
+        <v>4.0945</v>
+      </c>
+      <c r="G97">
+        <v>1.25</v>
+      </c>
+      <c r="H97">
+        <v>4.31</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.842</v>
+      </c>
+      <c r="K97">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L97">
+        <v>0.785</v>
+      </c>
+      <c r="M97">
+        <v>0.07288210000000001</v>
+      </c>
+      <c r="N97">
+        <v>0.7121179</v>
+      </c>
+      <c r="O97">
+        <v>0.14242358</v>
+      </c>
+      <c r="P97">
+        <v>0.56969432</v>
+      </c>
+      <c r="Q97">
+        <v>0.6266943199999999</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.420233474336942</v>
+      </c>
+      <c r="T97">
+        <v>17.19356050631734</v>
+      </c>
+      <c r="U97">
+        <v>0.0178</v>
+      </c>
+      <c r="V97">
+        <v>0.2</v>
+      </c>
+      <c r="W97">
+        <v>0.01424</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>10.77082026999771</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.08610448439902764</v>
+      </c>
+      <c r="C98">
+        <v>0.3687813169873628</v>
+      </c>
+      <c r="D98">
+        <v>3.256381316987362</v>
+      </c>
+      <c r="E98">
+        <v>4.137599999999999</v>
+      </c>
+      <c r="F98">
+        <v>4.137599999999999</v>
+      </c>
+      <c r="G98">
+        <v>1.25</v>
+      </c>
+      <c r="H98">
+        <v>4.31</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.842</v>
+      </c>
+      <c r="K98">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L98">
+        <v>0.785</v>
+      </c>
+      <c r="M98">
+        <v>0.08275199999999996</v>
+      </c>
+      <c r="N98">
+        <v>0.7022480000000001</v>
+      </c>
+      <c r="O98">
+        <v>0.1404496</v>
+      </c>
+      <c r="P98">
+        <v>0.5617984</v>
+      </c>
+      <c r="Q98">
+        <v>0.6187984</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.768612109975689</v>
+      </c>
+      <c r="T98">
+        <v>21.43888408812404</v>
+      </c>
+      <c r="U98">
+        <v>0.02</v>
+      </c>
+      <c r="V98">
+        <v>0.2</v>
+      </c>
+      <c r="W98">
+        <v>0.016</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>9.486175560711528</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.08599729508120825</v>
+      </c>
+      <c r="C99">
+        <v>0.3278596947254222</v>
+      </c>
+      <c r="D99">
+        <v>3.258559694725422</v>
+      </c>
+      <c r="E99">
+        <v>4.1807</v>
+      </c>
+      <c r="F99">
+        <v>4.1807</v>
+      </c>
+      <c r="G99">
+        <v>1.25</v>
+      </c>
+      <c r="H99">
+        <v>4.31</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.842</v>
+      </c>
+      <c r="K99">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L99">
+        <v>0.785</v>
+      </c>
+      <c r="M99">
+        <v>0.08361399999999998</v>
+      </c>
+      <c r="N99">
+        <v>0.7013860000000001</v>
+      </c>
+      <c r="O99">
+        <v>0.1402772</v>
+      </c>
+      <c r="P99">
+        <v>0.5611088000000001</v>
+      </c>
+      <c r="Q99">
+        <v>0.6181088</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.349243169373607</v>
+      </c>
+      <c r="T99">
+        <v>28.51442339113527</v>
+      </c>
+      <c r="U99">
+        <v>0.02</v>
+      </c>
+      <c r="V99">
+        <v>0.2</v>
+      </c>
+      <c r="W99">
+        <v>0.016</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>9.388379936374294</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.08589010576338887</v>
+      </c>
+      <c r="C100">
+        <v>0.2869409888947283</v>
+      </c>
+      <c r="D100">
+        <v>3.260740988894728</v>
+      </c>
+      <c r="E100">
+        <v>4.2238</v>
+      </c>
+      <c r="F100">
+        <v>4.2238</v>
+      </c>
+      <c r="G100">
+        <v>1.25</v>
+      </c>
+      <c r="H100">
+        <v>4.31</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.842</v>
+      </c>
+      <c r="K100">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L100">
+        <v>0.785</v>
+      </c>
+      <c r="M100">
+        <v>0.08447599999999998</v>
+      </c>
+      <c r="N100">
+        <v>0.700524</v>
+      </c>
+      <c r="O100">
+        <v>0.1401048</v>
+      </c>
+      <c r="P100">
+        <v>0.5604192</v>
+      </c>
+      <c r="Q100">
+        <v>0.6174191999999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.510505288169441</v>
+      </c>
+      <c r="T100">
+        <v>42.66550199715773</v>
+      </c>
+      <c r="U100">
+        <v>0.02</v>
+      </c>
+      <c r="V100">
+        <v>0.2</v>
+      </c>
+      <c r="W100">
+        <v>0.016</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>9.292580141105168</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.08578291644556948</v>
+      </c>
+      <c r="C101">
+        <v>0.2460252053560223</v>
+      </c>
+      <c r="D101">
+        <v>3.262925205356022</v>
+      </c>
+      <c r="E101">
+        <v>4.2669</v>
+      </c>
+      <c r="F101">
+        <v>4.2669</v>
+      </c>
+      <c r="G101">
+        <v>1.25</v>
+      </c>
+      <c r="H101">
+        <v>4.31</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.842</v>
+      </c>
+      <c r="K101">
+        <v>0.05699999999999994</v>
+      </c>
+      <c r="L101">
+        <v>0.785</v>
+      </c>
+      <c r="M101">
+        <v>0.08533799999999998</v>
+      </c>
+      <c r="N101">
+        <v>0.699662</v>
+      </c>
+      <c r="O101">
+        <v>0.1399324</v>
+      </c>
+      <c r="P101">
+        <v>0.5597296</v>
+      </c>
+      <c r="Q101">
+        <v>0.6167296</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.994291644556943</v>
+      </c>
+      <c r="T101">
+        <v>85.11873781522513</v>
+      </c>
+      <c r="U101">
+        <v>0.02</v>
+      </c>
+      <c r="V101">
+        <v>0.2</v>
+      </c>
+      <c r="W101">
+        <v>0.016</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>9.198715695235418</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
